--- a/images/TLOU Infected data.xlsx
+++ b/images/TLOU Infected data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Zomboid\Workshop\The Last of Us Infected\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3235D6-1697-4D02-8C70-137061ED1157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244EB3EB-95CB-442F-B617-7D72D542D345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zombie stats" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="weighted seed" sheetId="2" r:id="rId3"/>
     <sheet name="trueID my ass" sheetId="3" r:id="rId4"/>
     <sheet name="OnTick" sheetId="4" r:id="rId5"/>
+    <sheet name="Clothing list" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="1746">
   <si>
     <t>TSSF</t>
   </si>
@@ -4865,13 +4866,448 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>    ["Hat"] = 1,</t>
+  </si>
+  <si>
+    <t>    ["Mask"] = 2,</t>
+  </si>
+  <si>
+    <t>    ["Eyes"] = 3,</t>
+  </si>
+  <si>
+    <t>    ["LeftEye"] = 4,</t>
+  </si>
+  <si>
+    <t>    ["RightEye"] = 5,</t>
+  </si>
+  <si>
+    <t>    ["Nose"] = 6,</t>
+  </si>
+  <si>
+    <t>    ["BellyButton"] = 7,</t>
+  </si>
+  <si>
+    <t>    ["Right_MiddleFinge"] = 8,</t>
+  </si>
+  <si>
+    <t>    ["Left_MiddleFinger"] = 9,</t>
+  </si>
+  <si>
+    <t>    ["Right_RingFinger"] = 10,</t>
+  </si>
+  <si>
+    <t>    ["Left_RingFinger"] = 11,</t>
+  </si>
+  <si>
+    <t>    ["Ears"] = 12,</t>
+  </si>
+  <si>
+    <t>    ["EarTop"] = 13,</t>
+  </si>
+  <si>
+    <t>    ["Necklace"] = 14,</t>
+  </si>
+  <si>
+    <t>    ["Necklace_Long"] = 15,</t>
+  </si>
+  <si>
+    <t>    ["UnderwearTop"] = 16,</t>
+  </si>
+  <si>
+    <t>    ["UnderwearBottom"] = 17,</t>
+  </si>
+  <si>
+    <t>    ["UnderwearExtra1"] = 18,</t>
+  </si>
+  <si>
+    <t>    ["UnderwearExtra2"] = 19,</t>
+  </si>
+  <si>
+    <t>    ["Underwear"] = 20,</t>
+  </si>
+  <si>
+    <t>    ["Socks"] = 21,</t>
+  </si>
+  <si>
+    <t>    ["RightWrist"] = 22,</t>
+  </si>
+  <si>
+    <t>    ["LeftWrist"] = 23,</t>
+  </si>
+  <si>
+    <t>    ["Tail"] = 24,</t>
+  </si>
+  <si>
+    <t>    ["Hands"] = 25,</t>
+  </si>
+  <si>
+    <t>    ["Belt"] = 26,</t>
+  </si>
+  <si>
+    <t>    ["BeltExtra"] = 27,</t>
+  </si>
+  <si>
+    <t>    ["AmmoStrap"] = 28,</t>
+  </si>
+  <si>
+    <t>    ["Scarf"] = 29,</t>
+  </si>
+  <si>
+    <t>    ["Neck"] = 30,</t>
+  </si>
+  <si>
+    <t>    ["TorsoExtra"] = 31,</t>
+  </si>
+  <si>
+    <t>    ["TankTop"] = 32,</t>
+  </si>
+  <si>
+    <t>    ["Tshirt"] = 33,</t>
+  </si>
+  <si>
+    <t>    ["ShortSleeveShirt"] = 34,</t>
+  </si>
+  <si>
+    <t>    ["Shirt"] = 35,</t>
+  </si>
+  <si>
+    <t>    ["Sweater"] = 36,</t>
+  </si>
+  <si>
+    <t>    ["TorsoExtraVest"] = 37,</t>
+  </si>
+  <si>
+    <t>    ["Pants"] = 38,</t>
+  </si>
+  <si>
+    <t>    ["Skirt"] = 39,</t>
+  </si>
+  <si>
+    <t>    ["Torso1Legs1"] = 40,</t>
+  </si>
+  <si>
+    <t>    ["Legs1"] = 41,</t>
+  </si>
+  <si>
+    <t>    ["Shoes"] = 42,</t>
+  </si>
+  <si>
+    <t>    ["Jacket"] = 43,</t>
+  </si>
+  <si>
+    <t>FullHat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192299&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Wound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192300&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>BeltExtra</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>BellyButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192301&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>MakeUp_FullFace</t>
+  </si>
+  <si>
+    <t>MakeUp_Eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192302&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>MakeUp_EyesShadow</t>
+  </si>
+  <si>
+    <t>MakeUp_Lips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192303&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>MaskEyes</t>
+  </si>
+  <si>
+    <t>MaskFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192304&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Underwear</t>
+  </si>
+  <si>
+    <t>UnderwearBottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192305&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>UnderwearTop</t>
+  </si>
+  <si>
+    <t>UnderwearExtra1</t>
+  </si>
+  <si>
+    <t>UnderwearExtra2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192306&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192307&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Ears</t>
+  </si>
+  <si>
+    <t>EarTop</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192308&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Torso1</t>
+  </si>
+  <si>
+    <t>Torso1Legs1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192309&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>TankTop</t>
+  </si>
+  <si>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>ShortSleeveShirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192310&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>LeftWrist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192311&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>RightWrist</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192312&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Necklace</t>
+  </si>
+  <si>
+    <t>Necklace_Long</t>
+  </si>
+  <si>
+    <t>Right_MiddleFinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192313&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Left_MiddleFinger</t>
+  </si>
+  <si>
+    <t>Left_RingFinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192314&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Right_RingFinger</t>
+  </si>
+  <si>
+    <t>Hands</t>
+  </si>
+  <si>
+    <t>HandsLeft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192315&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>HandsRight</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Legs1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192316&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192317&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Legs5</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>BodyCostume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192318&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Sweater</t>
+  </si>
+  <si>
+    <t>SweaterHat</t>
+  </si>
+  <si>
+    <t>Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192319&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Jacket_Down</t>
+  </si>
+  <si>
+    <t>Jacket_Bulky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192320&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>JacketHat</t>
+  </si>
+  <si>
+    <t>JacketHat_Bulky</t>
+  </si>
+  <si>
+    <t>JacketSuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192321&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>FullSuit</t>
+  </si>
+  <si>
+    <t>Boilersuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192322&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>FullSuitHead</t>
+  </si>
+  <si>
+    <t>FullTop</t>
+  </si>
+  <si>
+    <t>BathRobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192323&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>FannyPackFront</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192324&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>FannyPackBack</t>
+  </si>
+  <si>
+    <t>AmmoStrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192325&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>TorsoExtra</t>
+  </si>
+  <si>
+    <t>TorsoExtraVest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192326&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Tail</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192327&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>LeftEye</t>
+  </si>
+  <si>
+    <t>RightEye</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOG  : General     , 1717112192328&gt; [ZomboidForge] </t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>ZedDmg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4899,6 +5335,17 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5189,7 +5636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5276,14 +5723,15 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12544,7 +12992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF190AB-ACA6-41A6-938F-B03698F52185}">
   <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -12860,30 +13308,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>1595</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickTop="1">
       <c r="B27" s="17" t="s">
@@ -12913,23 +13359,23 @@
         <v>1566</v>
       </c>
       <c r="C28" s="21" t="str">
-        <f>HLOOKUP(C15,$C$2:$F$9,$A28)</f>
+        <f t="shared" ref="C28:C34" si="0">HLOOKUP(C15,$C$2:$F$9,$A28)</f>
         <v>Fast Shambler</v>
       </c>
       <c r="D28" s="21" t="str">
-        <f t="shared" ref="D28:G28" si="0">HLOOKUP(D15,$C$2:$F$9,$A28)</f>
+        <f t="shared" ref="D28:G28" si="1">HLOOKUP(D15,$C$2:$F$9,$A28)</f>
         <v>Sprinter</v>
       </c>
       <c r="E28" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Sprinter</v>
       </c>
       <c r="F28" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Fast Shambler</v>
       </c>
       <c r="G28" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Fast Shambler</v>
       </c>
     </row>
@@ -12942,52 +13388,52 @@
         <v>1567</v>
       </c>
       <c r="C29" s="24" t="str">
-        <f>HLOOKUP(C16,$C$2:$F$9,$A29)</f>
+        <f t="shared" si="0"/>
         <v>Normal</v>
       </c>
       <c r="D29" s="24" t="str">
-        <f>HLOOKUP(D16,$C$2:$F$9,$A29)</f>
+        <f t="shared" ref="D29:G34" si="2">HLOOKUP(D16,$C$2:$F$9,$A29)</f>
         <v>Normal</v>
       </c>
       <c r="E29" s="24" t="str">
-        <f>HLOOKUP(E16,$C$2:$F$9,$A29)</f>
+        <f t="shared" si="2"/>
         <v>Superhuman</v>
       </c>
       <c r="F29" s="24" t="str">
-        <f>HLOOKUP(F16,$C$2:$F$9,$A29)</f>
+        <f t="shared" si="2"/>
         <v>Superhuman</v>
       </c>
       <c r="G29" s="25" t="str">
-        <f>HLOOKUP(G16,$C$2:$F$9,$A29)</f>
+        <f t="shared" si="2"/>
         <v>Superhuman</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickTop="1">
       <c r="A30" s="14">
-        <f t="shared" ref="A30:A34" si="1">A29+1</f>
+        <f t="shared" ref="A30:A34" si="3">A29+1</f>
         <v>4</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>1571</v>
       </c>
       <c r="C30" s="24" t="str">
-        <f>HLOOKUP(C17,$C$2:$F$9,$A30)</f>
+        <f t="shared" si="0"/>
         <v>Normal</v>
       </c>
       <c r="D30" s="24" t="str">
-        <f>HLOOKUP(D17,$C$2:$F$9,$A30)</f>
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
       <c r="E30" s="24" t="str">
-        <f>HLOOKUP(E17,$C$2:$F$9,$A30)</f>
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
       <c r="F30" s="24" t="str">
-        <f>HLOOKUP(F17,$C$2:$F$9,$A30)</f>
+        <f t="shared" si="2"/>
         <v>Tough</v>
       </c>
       <c r="G30" s="25" t="str">
-        <f>HLOOKUP(G17,$C$2:$F$9,$A30)</f>
+        <f t="shared" si="2"/>
         <v>Tough</v>
       </c>
       <c r="I30" s="26" t="s">
@@ -12996,30 +13442,30 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>1574</v>
       </c>
       <c r="C31" s="24" t="str">
-        <f>HLOOKUP(C18,$C$2:$F$9,$A31)</f>
+        <f t="shared" si="0"/>
         <v>Basic navigation</v>
       </c>
       <c r="D31" s="24" t="str">
-        <f>HLOOKUP(D18,$C$2:$F$9,$A31)</f>
+        <f t="shared" si="2"/>
         <v>Basic navigation</v>
       </c>
       <c r="E31" s="24" t="str">
-        <f>HLOOKUP(E18,$C$2:$F$9,$A31)</f>
+        <f t="shared" si="2"/>
         <v>Basic navigation</v>
       </c>
       <c r="F31" s="24" t="str">
-        <f>HLOOKUP(F18,$C$2:$F$9,$A31)</f>
+        <f t="shared" si="2"/>
         <v>Basic navigation</v>
       </c>
       <c r="G31" s="25" t="str">
-        <f>HLOOKUP(G18,$C$2:$F$9,$A31)</f>
+        <f t="shared" si="2"/>
         <v>Basic navigation</v>
       </c>
       <c r="I31" s="27" t="s">
@@ -13028,88 +13474,88 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" thickTop="1">
       <c r="A32" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>1578</v>
       </c>
       <c r="C32" s="24" t="str">
-        <f>HLOOKUP(C19,$C$2:$F$9,$A32)</f>
+        <f t="shared" si="0"/>
         <v>Normal</v>
       </c>
       <c r="D32" s="24" t="str">
-        <f>HLOOKUP(D19,$C$2:$F$9,$A32)</f>
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
       <c r="E32" s="24" t="str">
-        <f>HLOOKUP(E19,$C$2:$F$9,$A32)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">None </v>
       </c>
       <c r="F32" s="24" t="str">
-        <f>HLOOKUP(F19,$C$2:$F$9,$A32)</f>
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
       <c r="G32" s="25" t="str">
-        <f>HLOOKUP(G19,$C$2:$F$9,$A32)</f>
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>1582</v>
       </c>
       <c r="C33" s="24" t="str">
-        <f>HLOOKUP(C20,$C$2:$F$9,$A33)</f>
+        <f t="shared" si="0"/>
         <v>Normal</v>
       </c>
       <c r="D33" s="28" t="str">
-        <f>HLOOKUP(D20,$C$2:$F$9,$A33)</f>
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
       <c r="E33" s="28" t="str">
-        <f>HLOOKUP(E20,$C$2:$F$9,$A33)</f>
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
       <c r="F33" s="24" t="str">
-        <f>HLOOKUP(F20,$C$2:$F$9,$A33)</f>
+        <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
       <c r="G33" s="25" t="str">
-        <f>HLOOKUP(G20,$C$2:$F$9,$A33)</f>
+        <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>1585</v>
       </c>
       <c r="C34" s="24" t="str">
-        <f>HLOOKUP(C21,$C$2:$F$9,$A34)</f>
+        <f t="shared" si="0"/>
         <v>Normal</v>
       </c>
       <c r="D34" s="28" t="str">
-        <f>HLOOKUP(D21,$C$2:$F$9,$A34)</f>
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
       <c r="E34" s="28" t="str">
-        <f>HLOOKUP(E21,$C$2:$F$9,$A34)</f>
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
       <c r="F34" s="28" t="str">
-        <f>HLOOKUP(F21,$C$2:$F$9,$A34)</f>
+        <f t="shared" si="2"/>
         <v>Pinpoint</v>
       </c>
       <c r="G34" s="29" t="str">
-        <f>HLOOKUP(G21,$C$2:$F$9,$A34)</f>
+        <f t="shared" si="2"/>
         <v>Pinpoint</v>
       </c>
     </row>
@@ -56358,4 +56804,1837 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15FF17E-75E0-408A-8670-6A15857EEB27}">
+  <dimension ref="B2:K128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="36"/>
+    <col min="2" max="2" width="44.5703125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="36" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="36"/>
+    <col min="8" max="9" width="17.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" s="37" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C2" s="36" t="str" cm="1">
+        <f t="array" ref="C2:C45">_xlfn.TEXTAFTER(B2:B45,"""")</f>
+        <v>Hat"] = 1,</v>
+      </c>
+      <c r="D2" s="36" t="str" cm="1">
+        <f t="array" ref="D2:D45">_xlfn.TEXTBEFORE(C2:C45,"""")</f>
+        <v>Hat</v>
+      </c>
+      <c r="H2" s="36" t="str" cm="1">
+        <f t="array" ref="H2:H45">_xlfn.UNIQUE(_xlfn.ANCHORARRAY(D2))</f>
+        <v>Hat</v>
+      </c>
+      <c r="I2" s="36" t="str" cm="1">
+        <f t="array" ref="I2:I45">IF(ISNA(_xlfn.ANCHORARRAY(H2)),"",_xlfn.ANCHORARRAY(H2))</f>
+        <v>Hat</v>
+      </c>
+      <c r="J2" s="36" t="str" cm="1">
+        <f t="array" ref="J2:J45">_xlfn._xlws.SORT(_xlfn.ANCHORARRAY(I2))</f>
+        <v/>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="37" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C3" s="36" t="str">
+        <v>Mask"] = 2,</v>
+      </c>
+      <c r="D3" s="36" t="str">
+        <v>Mask</v>
+      </c>
+      <c r="H3" s="36" t="str">
+        <v>Mask</v>
+      </c>
+      <c r="I3" s="36" t="str">
+        <v>Mask</v>
+      </c>
+      <c r="J3" s="36" t="str">
+        <v>AmmoStrap</v>
+      </c>
+      <c r="K3" s="36" t="str" cm="1">
+        <f t="array" ref="K3:K45">J3:J45</f>
+        <v>AmmoStrap</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="37" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C4" s="36" t="str">
+        <v>Eyes"] = 3,</v>
+      </c>
+      <c r="D4" s="36" t="str">
+        <v>Eyes</v>
+      </c>
+      <c r="H4" s="36" t="str">
+        <v>Eyes</v>
+      </c>
+      <c r="I4" s="36" t="str">
+        <v>Eyes</v>
+      </c>
+      <c r="J4" s="36" t="str">
+        <v>BellyButton</v>
+      </c>
+      <c r="K4" s="36" t="str">
+        <v>BellyButton</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="37" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C5" s="36" t="str">
+        <v>LeftEye"] = 4,</v>
+      </c>
+      <c r="D5" s="36" t="str">
+        <v>LeftEye</v>
+      </c>
+      <c r="H5" s="36" t="str">
+        <v>LeftEye</v>
+      </c>
+      <c r="I5" s="36" t="str">
+        <v>LeftEye</v>
+      </c>
+      <c r="J5" s="36" t="str">
+        <v>Belt</v>
+      </c>
+      <c r="K5" s="36" t="str">
+        <v>Belt</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="37" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C6" s="36" t="str">
+        <v>RightEye"] = 5,</v>
+      </c>
+      <c r="D6" s="36" t="str">
+        <v>RightEye</v>
+      </c>
+      <c r="H6" s="36" t="str">
+        <v>RightEye</v>
+      </c>
+      <c r="I6" s="36" t="str">
+        <v>RightEye</v>
+      </c>
+      <c r="J6" s="36" t="str">
+        <v>BeltExtra</v>
+      </c>
+      <c r="K6" s="36" t="str">
+        <v>BeltExtra</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="37" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C7" s="36" t="str">
+        <v>Nose"] = 6,</v>
+      </c>
+      <c r="D7" s="36" t="str">
+        <v>Nose</v>
+      </c>
+      <c r="H7" s="36" t="str">
+        <v>Nose</v>
+      </c>
+      <c r="I7" s="36" t="str">
+        <v>Nose</v>
+      </c>
+      <c r="J7" s="36" t="str">
+        <v>Ears</v>
+      </c>
+      <c r="K7" s="36" t="str">
+        <v>Ears</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="37" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C8" s="36" t="str">
+        <v>BellyButton"] = 7,</v>
+      </c>
+      <c r="D8" s="36" t="str">
+        <v>BellyButton</v>
+      </c>
+      <c r="H8" s="36" t="str">
+        <v>BellyButton</v>
+      </c>
+      <c r="I8" s="36" t="str">
+        <v>BellyButton</v>
+      </c>
+      <c r="J8" s="36" t="str">
+        <v>EarTop</v>
+      </c>
+      <c r="K8" s="36" t="str">
+        <v>EarTop</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="37" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C9" s="36" t="str">
+        <v>Right_MiddleFinge"] = 8,</v>
+      </c>
+      <c r="D9" s="36" t="str">
+        <v>Right_MiddleFinge</v>
+      </c>
+      <c r="H9" s="36" t="str">
+        <v>Right_MiddleFinge</v>
+      </c>
+      <c r="I9" s="36" t="str">
+        <v>Right_MiddleFinge</v>
+      </c>
+      <c r="J9" s="36" t="str">
+        <v>Eyes</v>
+      </c>
+      <c r="K9" s="36" t="str">
+        <v>Eyes</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="37" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C10" s="36" t="str">
+        <v>Left_MiddleFinger"] = 9,</v>
+      </c>
+      <c r="D10" s="36" t="str">
+        <v>Left_MiddleFinger</v>
+      </c>
+      <c r="H10" s="36" t="str">
+        <v>Left_MiddleFinger</v>
+      </c>
+      <c r="I10" s="36" t="str">
+        <v>Left_MiddleFinger</v>
+      </c>
+      <c r="J10" s="36" t="str">
+        <v>Hands</v>
+      </c>
+      <c r="K10" s="36" t="str">
+        <v>Hands</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="37" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C11" s="36" t="str">
+        <v>Right_RingFinger"] = 10,</v>
+      </c>
+      <c r="D11" s="36" t="str">
+        <v>Right_RingFinger</v>
+      </c>
+      <c r="H11" s="36" t="str">
+        <v>Right_RingFinger</v>
+      </c>
+      <c r="I11" s="36" t="str">
+        <v>Right_RingFinger</v>
+      </c>
+      <c r="J11" s="36" t="str">
+        <v>Hat</v>
+      </c>
+      <c r="K11" s="36" t="str">
+        <v>Hat</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="37" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C12" s="36" t="str">
+        <v>Left_RingFinger"] = 11,</v>
+      </c>
+      <c r="D12" s="36" t="str">
+        <v>Left_RingFinger</v>
+      </c>
+      <c r="H12" s="36" t="str">
+        <v>Left_RingFinger</v>
+      </c>
+      <c r="I12" s="36" t="str">
+        <v>Left_RingFinger</v>
+      </c>
+      <c r="J12" s="36" t="str">
+        <v>Jacket</v>
+      </c>
+      <c r="K12" s="36" t="str">
+        <v>Jacket</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="37" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C13" s="36" t="str">
+        <v>Ears"] = 12,</v>
+      </c>
+      <c r="D13" s="36" t="str">
+        <v>Ears</v>
+      </c>
+      <c r="H13" s="36" t="str">
+        <v>Ears</v>
+      </c>
+      <c r="I13" s="36" t="str">
+        <v>Ears</v>
+      </c>
+      <c r="J13" s="36" t="str">
+        <v>Left_MiddleFinger</v>
+      </c>
+      <c r="K13" s="36" t="str">
+        <v>Left_MiddleFinger</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="37" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C14" s="36" t="str">
+        <v>EarTop"] = 13,</v>
+      </c>
+      <c r="D14" s="36" t="str">
+        <v>EarTop</v>
+      </c>
+      <c r="H14" s="36" t="str">
+        <v>EarTop</v>
+      </c>
+      <c r="I14" s="36" t="str">
+        <v>EarTop</v>
+      </c>
+      <c r="J14" s="36" t="str">
+        <v>Left_RingFinger</v>
+      </c>
+      <c r="K14" s="36" t="str">
+        <v>Left_RingFinger</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="37" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C15" s="36" t="str">
+        <v>Necklace"] = 14,</v>
+      </c>
+      <c r="D15" s="36" t="str">
+        <v>Necklace</v>
+      </c>
+      <c r="H15" s="36" t="str">
+        <v>Necklace</v>
+      </c>
+      <c r="I15" s="36" t="str">
+        <v>Necklace</v>
+      </c>
+      <c r="J15" s="36" t="str">
+        <v>LeftEye</v>
+      </c>
+      <c r="K15" s="36" t="str">
+        <v>LeftEye</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="37" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C16" s="36" t="str">
+        <v>Necklace_Long"] = 15,</v>
+      </c>
+      <c r="D16" s="36" t="str">
+        <v>Necklace_Long</v>
+      </c>
+      <c r="H16" s="36" t="str">
+        <v>Necklace_Long</v>
+      </c>
+      <c r="I16" s="36" t="str">
+        <v>Necklace_Long</v>
+      </c>
+      <c r="J16" s="36" t="str">
+        <v>LeftWrist</v>
+      </c>
+      <c r="K16" s="36" t="str">
+        <v>LeftWrist</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="37" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C17" s="36" t="str">
+        <v>UnderwearTop"] = 16,</v>
+      </c>
+      <c r="D17" s="36" t="str">
+        <v>UnderwearTop</v>
+      </c>
+      <c r="H17" s="36" t="str">
+        <v>UnderwearTop</v>
+      </c>
+      <c r="I17" s="36" t="str">
+        <v>UnderwearTop</v>
+      </c>
+      <c r="J17" s="36" t="str">
+        <v>Legs1</v>
+      </c>
+      <c r="K17" s="36" t="str">
+        <v>Legs1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="37" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C18" s="36" t="str">
+        <v>UnderwearBottom"] = 17,</v>
+      </c>
+      <c r="D18" s="36" t="str">
+        <v>UnderwearBottom</v>
+      </c>
+      <c r="H18" s="36" t="str">
+        <v>UnderwearBottom</v>
+      </c>
+      <c r="I18" s="36" t="str">
+        <v>UnderwearBottom</v>
+      </c>
+      <c r="J18" s="36" t="str">
+        <v>Mask</v>
+      </c>
+      <c r="K18" s="36" t="str">
+        <v>Mask</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="37" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C19" s="36" t="str">
+        <v>UnderwearExtra1"] = 18,</v>
+      </c>
+      <c r="D19" s="36" t="str">
+        <v>UnderwearExtra1</v>
+      </c>
+      <c r="H19" s="36" t="str">
+        <v>UnderwearExtra1</v>
+      </c>
+      <c r="I19" s="36" t="str">
+        <v>UnderwearExtra1</v>
+      </c>
+      <c r="J19" s="36" t="str">
+        <v>Neck</v>
+      </c>
+      <c r="K19" s="36" t="str">
+        <v>Neck</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="37" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C20" s="36" t="str">
+        <v>UnderwearExtra2"] = 19,</v>
+      </c>
+      <c r="D20" s="36" t="str">
+        <v>UnderwearExtra2</v>
+      </c>
+      <c r="H20" s="36" t="str">
+        <v>UnderwearExtra2</v>
+      </c>
+      <c r="I20" s="36" t="str">
+        <v>UnderwearExtra2</v>
+      </c>
+      <c r="J20" s="36" t="str">
+        <v>Necklace</v>
+      </c>
+      <c r="K20" s="36" t="str">
+        <v>Necklace</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="37" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C21" s="36" t="str">
+        <v>Underwear"] = 20,</v>
+      </c>
+      <c r="D21" s="36" t="str">
+        <v>Underwear</v>
+      </c>
+      <c r="H21" s="36" t="str">
+        <v>Underwear</v>
+      </c>
+      <c r="I21" s="36" t="str">
+        <v>Underwear</v>
+      </c>
+      <c r="J21" s="36" t="str">
+        <v>Necklace_Long</v>
+      </c>
+      <c r="K21" s="36" t="str">
+        <v>Necklace_Long</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="37" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C22" s="36" t="str">
+        <v>Socks"] = 21,</v>
+      </c>
+      <c r="D22" s="36" t="str">
+        <v>Socks</v>
+      </c>
+      <c r="H22" s="36" t="str">
+        <v>Socks</v>
+      </c>
+      <c r="I22" s="36" t="str">
+        <v>Socks</v>
+      </c>
+      <c r="J22" s="36" t="str">
+        <v>Nose</v>
+      </c>
+      <c r="K22" s="36" t="str">
+        <v>Nose</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="37" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C23" s="36" t="str">
+        <v>RightWrist"] = 22,</v>
+      </c>
+      <c r="D23" s="36" t="str">
+        <v>RightWrist</v>
+      </c>
+      <c r="H23" s="36" t="str">
+        <v>RightWrist</v>
+      </c>
+      <c r="I23" s="36" t="str">
+        <v>RightWrist</v>
+      </c>
+      <c r="J23" s="36" t="str">
+        <v>Pants</v>
+      </c>
+      <c r="K23" s="36" t="str">
+        <v>Pants</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="37" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C24" s="36" t="str">
+        <v>LeftWrist"] = 23,</v>
+      </c>
+      <c r="D24" s="36" t="str">
+        <v>LeftWrist</v>
+      </c>
+      <c r="H24" s="36" t="str">
+        <v>LeftWrist</v>
+      </c>
+      <c r="I24" s="36" t="str">
+        <v>LeftWrist</v>
+      </c>
+      <c r="J24" s="36" t="str">
+        <v>Right_MiddleFinge</v>
+      </c>
+      <c r="K24" s="36" t="str">
+        <v>Right_MiddleFinge</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="37" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C25" s="36" t="str">
+        <v>Tail"] = 24,</v>
+      </c>
+      <c r="D25" s="36" t="str">
+        <v>Tail</v>
+      </c>
+      <c r="H25" s="36" t="str">
+        <v>Tail</v>
+      </c>
+      <c r="I25" s="36" t="str">
+        <v>Tail</v>
+      </c>
+      <c r="J25" s="36" t="str">
+        <v>Right_RingFinger</v>
+      </c>
+      <c r="K25" s="36" t="str">
+        <v>Right_RingFinger</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="C26" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" s="36" t="str">
+        <v/>
+      </c>
+      <c r="J26" s="36" t="str">
+        <v>RightEye</v>
+      </c>
+      <c r="K26" s="36" t="str">
+        <v>RightEye</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="37" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C27" s="36" t="str">
+        <v>Hands"] = 25,</v>
+      </c>
+      <c r="D27" s="36" t="str">
+        <v>Hands</v>
+      </c>
+      <c r="H27" s="36" t="str">
+        <v>Hands</v>
+      </c>
+      <c r="I27" s="36" t="str">
+        <v>Hands</v>
+      </c>
+      <c r="J27" s="36" t="str">
+        <v>RightWrist</v>
+      </c>
+      <c r="K27" s="36" t="str">
+        <v>RightWrist</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="37" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C28" s="36" t="str">
+        <v>Belt"] = 26,</v>
+      </c>
+      <c r="D28" s="36" t="str">
+        <v>Belt</v>
+      </c>
+      <c r="H28" s="36" t="str">
+        <v>Belt</v>
+      </c>
+      <c r="I28" s="36" t="str">
+        <v>Belt</v>
+      </c>
+      <c r="J28" s="36" t="str">
+        <v>Scarf</v>
+      </c>
+      <c r="K28" s="36" t="str">
+        <v>Scarf</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="37" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C29" s="36" t="str">
+        <v>BeltExtra"] = 27,</v>
+      </c>
+      <c r="D29" s="36" t="str">
+        <v>BeltExtra</v>
+      </c>
+      <c r="H29" s="36" t="str">
+        <v>BeltExtra</v>
+      </c>
+      <c r="I29" s="36" t="str">
+        <v>BeltExtra</v>
+      </c>
+      <c r="J29" s="36" t="str">
+        <v>Shirt</v>
+      </c>
+      <c r="K29" s="36" t="str">
+        <v>Shirt</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="37" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C30" s="36" t="str">
+        <v>AmmoStrap"] = 28,</v>
+      </c>
+      <c r="D30" s="36" t="str">
+        <v>AmmoStrap</v>
+      </c>
+      <c r="H30" s="36" t="str">
+        <v>AmmoStrap</v>
+      </c>
+      <c r="I30" s="36" t="str">
+        <v>AmmoStrap</v>
+      </c>
+      <c r="J30" s="36" t="str">
+        <v>Shoes</v>
+      </c>
+      <c r="K30" s="36" t="str">
+        <v>Shoes</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="37" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C31" s="36" t="str">
+        <v>Scarf"] = 29,</v>
+      </c>
+      <c r="D31" s="36" t="str">
+        <v>Scarf</v>
+      </c>
+      <c r="H31" s="36" t="str">
+        <v>Scarf</v>
+      </c>
+      <c r="I31" s="36" t="str">
+        <v>Scarf</v>
+      </c>
+      <c r="J31" s="36" t="str">
+        <v>ShortSleeveShirt</v>
+      </c>
+      <c r="K31" s="36" t="str">
+        <v>ShortSleeveShirt</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="37" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C32" s="36" t="str">
+        <v>Neck"] = 30,</v>
+      </c>
+      <c r="D32" s="36" t="str">
+        <v>Neck</v>
+      </c>
+      <c r="H32" s="36" t="str">
+        <v>Neck</v>
+      </c>
+      <c r="I32" s="36" t="str">
+        <v>Neck</v>
+      </c>
+      <c r="J32" s="36" t="str">
+        <v>Skirt</v>
+      </c>
+      <c r="K32" s="36" t="str">
+        <v>Skirt</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="37" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C33" s="36" t="str">
+        <v>TorsoExtra"] = 31,</v>
+      </c>
+      <c r="D33" s="36" t="str">
+        <v>TorsoExtra</v>
+      </c>
+      <c r="H33" s="36" t="str">
+        <v>TorsoExtra</v>
+      </c>
+      <c r="I33" s="36" t="str">
+        <v>TorsoExtra</v>
+      </c>
+      <c r="J33" s="36" t="str">
+        <v>Socks</v>
+      </c>
+      <c r="K33" s="36" t="str">
+        <v>Socks</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="37" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C34" s="36" t="str">
+        <v>TankTop"] = 32,</v>
+      </c>
+      <c r="D34" s="36" t="str">
+        <v>TankTop</v>
+      </c>
+      <c r="H34" s="36" t="str">
+        <v>TankTop</v>
+      </c>
+      <c r="I34" s="36" t="str">
+        <v>TankTop</v>
+      </c>
+      <c r="J34" s="36" t="str">
+        <v>Sweater</v>
+      </c>
+      <c r="K34" s="36" t="str">
+        <v>Sweater</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="37" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C35" s="36" t="str">
+        <v>Tshirt"] = 33,</v>
+      </c>
+      <c r="D35" s="36" t="str">
+        <v>Tshirt</v>
+      </c>
+      <c r="H35" s="36" t="str">
+        <v>Tshirt</v>
+      </c>
+      <c r="I35" s="36" t="str">
+        <v>Tshirt</v>
+      </c>
+      <c r="J35" s="36" t="str">
+        <v>Tail</v>
+      </c>
+      <c r="K35" s="36" t="str">
+        <v>Tail</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="37" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C36" s="36" t="str">
+        <v>ShortSleeveShirt"] = 34,</v>
+      </c>
+      <c r="D36" s="36" t="str">
+        <v>ShortSleeveShirt</v>
+      </c>
+      <c r="H36" s="36" t="str">
+        <v>ShortSleeveShirt</v>
+      </c>
+      <c r="I36" s="36" t="str">
+        <v>ShortSleeveShirt</v>
+      </c>
+      <c r="J36" s="36" t="str">
+        <v>TankTop</v>
+      </c>
+      <c r="K36" s="36" t="str">
+        <v>TankTop</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="37" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C37" s="36" t="str">
+        <v>Shirt"] = 35,</v>
+      </c>
+      <c r="D37" s="36" t="str">
+        <v>Shirt</v>
+      </c>
+      <c r="H37" s="36" t="str">
+        <v>Shirt</v>
+      </c>
+      <c r="I37" s="36" t="str">
+        <v>Shirt</v>
+      </c>
+      <c r="J37" s="36" t="str">
+        <v>Torso1Legs1</v>
+      </c>
+      <c r="K37" s="36" t="str">
+        <v>Torso1Legs1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="37" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C38" s="36" t="str">
+        <v>Sweater"] = 36,</v>
+      </c>
+      <c r="D38" s="36" t="str">
+        <v>Sweater</v>
+      </c>
+      <c r="H38" s="36" t="str">
+        <v>Sweater</v>
+      </c>
+      <c r="I38" s="36" t="str">
+        <v>Sweater</v>
+      </c>
+      <c r="J38" s="36" t="str">
+        <v>TorsoExtra</v>
+      </c>
+      <c r="K38" s="36" t="str">
+        <v>TorsoExtra</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="37" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C39" s="36" t="str">
+        <v>TorsoExtraVest"] = 37,</v>
+      </c>
+      <c r="D39" s="36" t="str">
+        <v>TorsoExtraVest</v>
+      </c>
+      <c r="H39" s="36" t="str">
+        <v>TorsoExtraVest</v>
+      </c>
+      <c r="I39" s="36" t="str">
+        <v>TorsoExtraVest</v>
+      </c>
+      <c r="J39" s="36" t="str">
+        <v>TorsoExtraVest</v>
+      </c>
+      <c r="K39" s="36" t="str">
+        <v>TorsoExtraVest</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="37" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C40" s="36" t="str">
+        <v>Pants"] = 38,</v>
+      </c>
+      <c r="D40" s="36" t="str">
+        <v>Pants</v>
+      </c>
+      <c r="H40" s="36" t="str">
+        <v>Pants</v>
+      </c>
+      <c r="I40" s="36" t="str">
+        <v>Pants</v>
+      </c>
+      <c r="J40" s="36" t="str">
+        <v>Tshirt</v>
+      </c>
+      <c r="K40" s="36" t="str">
+        <v>Tshirt</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="37" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C41" s="36" t="str">
+        <v>Skirt"] = 39,</v>
+      </c>
+      <c r="D41" s="36" t="str">
+        <v>Skirt</v>
+      </c>
+      <c r="H41" s="36" t="str">
+        <v>Skirt</v>
+      </c>
+      <c r="I41" s="36" t="str">
+        <v>Skirt</v>
+      </c>
+      <c r="J41" s="36" t="str">
+        <v>Underwear</v>
+      </c>
+      <c r="K41" s="36" t="str">
+        <v>Underwear</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="37" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C42" s="36" t="str">
+        <v>Torso1Legs1"] = 40,</v>
+      </c>
+      <c r="D42" s="36" t="str">
+        <v>Torso1Legs1</v>
+      </c>
+      <c r="H42" s="36" t="str">
+        <v>Torso1Legs1</v>
+      </c>
+      <c r="I42" s="36" t="str">
+        <v>Torso1Legs1</v>
+      </c>
+      <c r="J42" s="36" t="str">
+        <v>UnderwearBottom</v>
+      </c>
+      <c r="K42" s="36" t="str">
+        <v>UnderwearBottom</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="37" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C43" s="36" t="str">
+        <v>Legs1"] = 41,</v>
+      </c>
+      <c r="D43" s="36" t="str">
+        <v>Legs1</v>
+      </c>
+      <c r="H43" s="36" t="str">
+        <v>Legs1</v>
+      </c>
+      <c r="I43" s="36" t="str">
+        <v>Legs1</v>
+      </c>
+      <c r="J43" s="36" t="str">
+        <v>UnderwearExtra1</v>
+      </c>
+      <c r="K43" s="36" t="str">
+        <v>UnderwearExtra1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="37" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C44" s="36" t="str">
+        <v>Shoes"] = 42,</v>
+      </c>
+      <c r="D44" s="36" t="str">
+        <v>Shoes</v>
+      </c>
+      <c r="H44" s="36" t="str">
+        <v>Shoes</v>
+      </c>
+      <c r="I44" s="36" t="str">
+        <v>Shoes</v>
+      </c>
+      <c r="J44" s="36" t="str">
+        <v>UnderwearExtra2</v>
+      </c>
+      <c r="K44" s="36" t="str">
+        <v>UnderwearExtra2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="37" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C45" s="36" t="str">
+        <v>Jacket"] = 43,</v>
+      </c>
+      <c r="D45" s="36" t="str">
+        <v>Jacket</v>
+      </c>
+      <c r="H45" s="36" t="str">
+        <v>Jacket</v>
+      </c>
+      <c r="I45" s="36" t="str">
+        <v>Jacket</v>
+      </c>
+      <c r="J45" s="36" t="str">
+        <v>UnderwearTop</v>
+      </c>
+      <c r="K45" s="36" t="str">
+        <v>UnderwearTop</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="36" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D57" s="36" t="str" cm="1">
+        <f t="array" ref="D57:D128">_xlfn.UNIQUE(C57:C128)</f>
+        <v>Wound</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="36" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D58" s="36" t="str">
+        <v>BeltExtra</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="36" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D59" s="36" t="str">
+        <v>Belt</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="36" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D60" s="36" t="str">
+        <v>BellyButton</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="36" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D61" s="36" t="str">
+        <v>MakeUp_FullFace</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="36" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D62" s="36" t="str">
+        <v>MakeUp_Eyes</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="36" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D63" s="36" t="str">
+        <v>MakeUp_EyesShadow</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="36" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D64" s="36" t="str">
+        <v>MakeUp_Lips</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="36" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D65" s="36" t="str">
+        <v>Mask</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="36" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D66" s="36" t="str">
+        <v>MaskEyes</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="36" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D67" s="36" t="str">
+        <v>MaskFull</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="36" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D68" s="36" t="str">
+        <v>Underwear</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="36" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D69" s="36" t="str">
+        <v>UnderwearBottom</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D70" s="36" t="str">
+        <v>UnderwearTop</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D71" s="36" t="str">
+        <v>UnderwearExtra1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="36" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D72" s="36" t="str">
+        <v>UnderwearExtra2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="36" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D73" s="36" t="str">
+        <v>Hat</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="36" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D74" s="36" t="str">
+        <v>FullHat</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="36" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D75" s="36" t="str">
+        <v>Ears</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="36" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D76" s="36" t="str">
+        <v>EarTop</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="36" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D77" s="36" t="str">
+        <v>Nose</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="36" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D78" s="36" t="str">
+        <v>Torso1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="36" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D79" s="36" t="str">
+        <v>Torso1Legs1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="36" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D80" s="36" t="str">
+        <v>TankTop</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="36" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D81" s="36" t="str">
+        <v>Tshirt</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="36" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D82" s="36" t="str">
+        <v>ShortSleeveShirt</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="36" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D83" s="36" t="str">
+        <v>LeftWrist</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="36" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D84" s="36" t="str">
+        <v>RightWrist</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="36" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D85" s="36" t="str">
+        <v>Shirt</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="36" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D86" s="36" t="str">
+        <v>Neck</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="36" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D87" s="36" t="str">
+        <v>Necklace</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="36" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D88" s="36" t="str">
+        <v>Necklace_Long</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="36" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D89" s="36" t="str">
+        <v>Right_MiddleFinger</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="36" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D90" s="36" t="str">
+        <v>Left_MiddleFinger</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="36" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D91" s="36" t="str">
+        <v>Left_RingFinger</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D92" s="36" t="str">
+        <v>Right_RingFinger</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D93" s="36" t="str">
+        <v>Hands</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D94" s="36" t="str">
+        <v>HandsLeft</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="36" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D95" s="36" t="str">
+        <v>HandsRight</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="36" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D96" s="36" t="str">
+        <v>Socks</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="36" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D97" s="36" t="str">
+        <v>Legs1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="36" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D98" s="36" t="str">
+        <v>Pants</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="36" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D99" s="36" t="str">
+        <v>Skirt</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="36" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D100" s="36" t="str">
+        <v>Legs5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="36" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D101" s="36" t="str">
+        <v>Dress</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="36" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D102" s="36" t="str">
+        <v>BodyCostume</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="36" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D103" s="36" t="str">
+        <v>Sweater</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="36" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D104" s="36" t="str">
+        <v>SweaterHat</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="36" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D105" s="36" t="str">
+        <v>Jacket</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="36" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D106" s="36" t="str">
+        <v>Jacket_Down</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="36" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D107" s="36" t="str">
+        <v>Jacket_Bulky</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="36" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D108" s="36" t="str">
+        <v>JacketHat</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="36" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D109" s="36" t="str">
+        <v>JacketHat_Bulky</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="36" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D110" s="36" t="str">
+        <v>JacketSuit</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="36" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D111" s="36" t="str">
+        <v>FullSuit</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="36" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D112" s="36" t="str">
+        <v>Boilersuit</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="36" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D113" s="36" t="str">
+        <v>FullSuitHead</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="36" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D114" s="36" t="str">
+        <v>FullTop</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="36" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D115" s="36" t="str">
+        <v>BathRobe</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="36" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D116" s="36" t="str">
+        <v>Shoes</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="36" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D117" s="36" t="str">
+        <v>FannyPackFront</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="36" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D118" s="36" t="str">
+        <v>FannyPackBack</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="36" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D119" s="36" t="str">
+        <v>AmmoStrap</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="36" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D120" s="36" t="str">
+        <v>TorsoExtra</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="36" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D121" s="36" t="str">
+        <v>TorsoExtraVest</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="36" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D122" s="36" t="str">
+        <v>Tail</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" s="36" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D123" s="36" t="str">
+        <v>Back</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" s="36" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D124" s="36" t="str">
+        <v>LeftEye</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" s="36" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C125" s="36" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D125" s="36" t="str">
+        <v>RightEye</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" s="36" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C126" s="36" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D126" s="36" t="str">
+        <v>Eyes</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" s="36" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D127" s="36" t="str">
+        <v>Scarf</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" s="36" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D128" s="36" t="str">
+        <v>ZedDmg</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/images/TLOU Infected data.xlsx
+++ b/images/TLOU Infected data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Zomboid\Workshop\The Last of Us Infected\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244EB3EB-95CB-442F-B617-7D72D542D345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA54CA5-9ACD-4B67-80E5-DCBCB90E4449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="8" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zombie stats" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="trueID my ass" sheetId="3" r:id="rId4"/>
     <sheet name="OnTick" sheetId="4" r:id="rId5"/>
     <sheet name="Clothing list" sheetId="6" r:id="rId6"/>
+    <sheet name="Stalker behavior data" sheetId="8" r:id="rId7"/>
+    <sheet name="Stalker behavior" sheetId="7" r:id="rId8"/>
+    <sheet name="Stalker trajectories" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="1761">
   <si>
     <t>TSSF</t>
   </si>
@@ -5301,12 +5304,60 @@
   </si>
   <si>
     <t>ZedDmg</t>
+  </si>
+  <si>
+    <t>TimeSinceSeenFlesh</t>
+  </si>
+  <si>
+    <t>canSee</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>isDay</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>|r|</t>
+  </si>
+  <si>
+    <t>r_T</t>
+  </si>
+  <si>
+    <t>V_clockwise</t>
+  </si>
+  <si>
+    <t>V_counter_clockwise</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -5636,7 +5687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5726,12 +5777,27 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13322,14 +13388,14 @@
       <c r="G24" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="40" t="s">
         <v>1595</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickTop="1">
       <c r="B27" s="17" t="s">
@@ -56810,1826 +56876,1826 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15FF17E-75E0-408A-8670-6A15857EEB27}">
   <dimension ref="B2:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="36"/>
-    <col min="2" max="2" width="44.5703125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="36" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="36"/>
-    <col min="8" max="9" width="17.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="36"/>
+    <col min="1" max="1" width="11.42578125" style="35"/>
+    <col min="2" max="2" width="44.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="35" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="35"/>
+    <col min="8" max="9" width="17.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>1601</v>
       </c>
-      <c r="C2" s="36" t="str" cm="1">
+      <c r="C2" s="35" t="str" cm="1">
         <f t="array" ref="C2:C45">_xlfn.TEXTAFTER(B2:B45,"""")</f>
         <v>Hat"] = 1,</v>
       </c>
-      <c r="D2" s="36" t="str" cm="1">
+      <c r="D2" s="35" t="str" cm="1">
         <f t="array" ref="D2:D45">_xlfn.TEXTBEFORE(C2:C45,"""")</f>
         <v>Hat</v>
       </c>
-      <c r="H2" s="36" t="str" cm="1">
+      <c r="H2" s="35" t="str" cm="1">
         <f t="array" ref="H2:H45">_xlfn.UNIQUE(_xlfn.ANCHORARRAY(D2))</f>
         <v>Hat</v>
       </c>
-      <c r="I2" s="36" t="str" cm="1">
+      <c r="I2" s="35" t="str" cm="1">
         <f t="array" ref="I2:I45">IF(ISNA(_xlfn.ANCHORARRAY(H2)),"",_xlfn.ANCHORARRAY(H2))</f>
         <v>Hat</v>
       </c>
-      <c r="J2" s="36" t="str" cm="1">
+      <c r="J2" s="35" t="str" cm="1">
         <f t="array" ref="J2:J45">_xlfn._xlws.SORT(_xlfn.ANCHORARRAY(I2))</f>
         <v/>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="35" t="s">
         <v>1644</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>1602</v>
       </c>
-      <c r="C3" s="36" t="str">
+      <c r="C3" s="35" t="str">
         <v>Mask"] = 2,</v>
       </c>
-      <c r="D3" s="36" t="str">
+      <c r="D3" s="35" t="str">
         <v>Mask</v>
       </c>
-      <c r="H3" s="36" t="str">
+      <c r="H3" s="35" t="str">
         <v>Mask</v>
       </c>
-      <c r="I3" s="36" t="str">
+      <c r="I3" s="35" t="str">
         <v>Mask</v>
       </c>
-      <c r="J3" s="36" t="str">
+      <c r="J3" s="35" t="str">
         <v>AmmoStrap</v>
       </c>
-      <c r="K3" s="36" t="str" cm="1">
+      <c r="K3" s="35" t="str" cm="1">
         <f t="array" ref="K3:K45">J3:J45</f>
         <v>AmmoStrap</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>1603</v>
       </c>
-      <c r="C4" s="36" t="str">
+      <c r="C4" s="35" t="str">
         <v>Eyes"] = 3,</v>
       </c>
-      <c r="D4" s="36" t="str">
+      <c r="D4" s="35" t="str">
         <v>Eyes</v>
       </c>
-      <c r="H4" s="36" t="str">
+      <c r="H4" s="35" t="str">
         <v>Eyes</v>
       </c>
-      <c r="I4" s="36" t="str">
+      <c r="I4" s="35" t="str">
         <v>Eyes</v>
       </c>
-      <c r="J4" s="36" t="str">
+      <c r="J4" s="35" t="str">
         <v>BellyButton</v>
       </c>
-      <c r="K4" s="36" t="str">
+      <c r="K4" s="35" t="str">
         <v>BellyButton</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>1604</v>
       </c>
-      <c r="C5" s="36" t="str">
+      <c r="C5" s="35" t="str">
         <v>LeftEye"] = 4,</v>
       </c>
-      <c r="D5" s="36" t="str">
+      <c r="D5" s="35" t="str">
         <v>LeftEye</v>
       </c>
-      <c r="H5" s="36" t="str">
+      <c r="H5" s="35" t="str">
         <v>LeftEye</v>
       </c>
-      <c r="I5" s="36" t="str">
+      <c r="I5" s="35" t="str">
         <v>LeftEye</v>
       </c>
-      <c r="J5" s="36" t="str">
+      <c r="J5" s="35" t="str">
         <v>Belt</v>
       </c>
-      <c r="K5" s="36" t="str">
+      <c r="K5" s="35" t="str">
         <v>Belt</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>1605</v>
       </c>
-      <c r="C6" s="36" t="str">
+      <c r="C6" s="35" t="str">
         <v>RightEye"] = 5,</v>
       </c>
-      <c r="D6" s="36" t="str">
+      <c r="D6" s="35" t="str">
         <v>RightEye</v>
       </c>
-      <c r="H6" s="36" t="str">
+      <c r="H6" s="35" t="str">
         <v>RightEye</v>
       </c>
-      <c r="I6" s="36" t="str">
+      <c r="I6" s="35" t="str">
         <v>RightEye</v>
       </c>
-      <c r="J6" s="36" t="str">
+      <c r="J6" s="35" t="str">
         <v>BeltExtra</v>
       </c>
-      <c r="K6" s="36" t="str">
+      <c r="K6" s="35" t="str">
         <v>BeltExtra</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>1606</v>
       </c>
-      <c r="C7" s="36" t="str">
+      <c r="C7" s="35" t="str">
         <v>Nose"] = 6,</v>
       </c>
-      <c r="D7" s="36" t="str">
+      <c r="D7" s="35" t="str">
         <v>Nose</v>
       </c>
-      <c r="H7" s="36" t="str">
+      <c r="H7" s="35" t="str">
         <v>Nose</v>
       </c>
-      <c r="I7" s="36" t="str">
+      <c r="I7" s="35" t="str">
         <v>Nose</v>
       </c>
-      <c r="J7" s="36" t="str">
+      <c r="J7" s="35" t="str">
         <v>Ears</v>
       </c>
-      <c r="K7" s="36" t="str">
+      <c r="K7" s="35" t="str">
         <v>Ears</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>1607</v>
       </c>
-      <c r="C8" s="36" t="str">
+      <c r="C8" s="35" t="str">
         <v>BellyButton"] = 7,</v>
       </c>
-      <c r="D8" s="36" t="str">
+      <c r="D8" s="35" t="str">
         <v>BellyButton</v>
       </c>
-      <c r="H8" s="36" t="str">
+      <c r="H8" s="35" t="str">
         <v>BellyButton</v>
       </c>
-      <c r="I8" s="36" t="str">
+      <c r="I8" s="35" t="str">
         <v>BellyButton</v>
       </c>
-      <c r="J8" s="36" t="str">
+      <c r="J8" s="35" t="str">
         <v>EarTop</v>
       </c>
-      <c r="K8" s="36" t="str">
+      <c r="K8" s="35" t="str">
         <v>EarTop</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>1608</v>
       </c>
-      <c r="C9" s="36" t="str">
+      <c r="C9" s="35" t="str">
         <v>Right_MiddleFinge"] = 8,</v>
       </c>
-      <c r="D9" s="36" t="str">
+      <c r="D9" s="35" t="str">
         <v>Right_MiddleFinge</v>
       </c>
-      <c r="H9" s="36" t="str">
+      <c r="H9" s="35" t="str">
         <v>Right_MiddleFinge</v>
       </c>
-      <c r="I9" s="36" t="str">
+      <c r="I9" s="35" t="str">
         <v>Right_MiddleFinge</v>
       </c>
-      <c r="J9" s="36" t="str">
+      <c r="J9" s="35" t="str">
         <v>Eyes</v>
       </c>
-      <c r="K9" s="36" t="str">
+      <c r="K9" s="35" t="str">
         <v>Eyes</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>1609</v>
       </c>
-      <c r="C10" s="36" t="str">
+      <c r="C10" s="35" t="str">
         <v>Left_MiddleFinger"] = 9,</v>
       </c>
-      <c r="D10" s="36" t="str">
+      <c r="D10" s="35" t="str">
         <v>Left_MiddleFinger</v>
       </c>
-      <c r="H10" s="36" t="str">
+      <c r="H10" s="35" t="str">
         <v>Left_MiddleFinger</v>
       </c>
-      <c r="I10" s="36" t="str">
+      <c r="I10" s="35" t="str">
         <v>Left_MiddleFinger</v>
       </c>
-      <c r="J10" s="36" t="str">
+      <c r="J10" s="35" t="str">
         <v>Hands</v>
       </c>
-      <c r="K10" s="36" t="str">
+      <c r="K10" s="35" t="str">
         <v>Hands</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>1610</v>
       </c>
-      <c r="C11" s="36" t="str">
+      <c r="C11" s="35" t="str">
         <v>Right_RingFinger"] = 10,</v>
       </c>
-      <c r="D11" s="36" t="str">
+      <c r="D11" s="35" t="str">
         <v>Right_RingFinger</v>
       </c>
-      <c r="H11" s="36" t="str">
+      <c r="H11" s="35" t="str">
         <v>Right_RingFinger</v>
       </c>
-      <c r="I11" s="36" t="str">
+      <c r="I11" s="35" t="str">
         <v>Right_RingFinger</v>
       </c>
-      <c r="J11" s="36" t="str">
+      <c r="J11" s="35" t="str">
         <v>Hat</v>
       </c>
-      <c r="K11" s="36" t="str">
+      <c r="K11" s="35" t="str">
         <v>Hat</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>1611</v>
       </c>
-      <c r="C12" s="36" t="str">
+      <c r="C12" s="35" t="str">
         <v>Left_RingFinger"] = 11,</v>
       </c>
-      <c r="D12" s="36" t="str">
+      <c r="D12" s="35" t="str">
         <v>Left_RingFinger</v>
       </c>
-      <c r="H12" s="36" t="str">
+      <c r="H12" s="35" t="str">
         <v>Left_RingFinger</v>
       </c>
-      <c r="I12" s="36" t="str">
+      <c r="I12" s="35" t="str">
         <v>Left_RingFinger</v>
       </c>
-      <c r="J12" s="36" t="str">
+      <c r="J12" s="35" t="str">
         <v>Jacket</v>
       </c>
-      <c r="K12" s="36" t="str">
+      <c r="K12" s="35" t="str">
         <v>Jacket</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>1612</v>
       </c>
-      <c r="C13" s="36" t="str">
+      <c r="C13" s="35" t="str">
         <v>Ears"] = 12,</v>
       </c>
-      <c r="D13" s="36" t="str">
+      <c r="D13" s="35" t="str">
         <v>Ears</v>
       </c>
-      <c r="H13" s="36" t="str">
+      <c r="H13" s="35" t="str">
         <v>Ears</v>
       </c>
-      <c r="I13" s="36" t="str">
+      <c r="I13" s="35" t="str">
         <v>Ears</v>
       </c>
-      <c r="J13" s="36" t="str">
+      <c r="J13" s="35" t="str">
         <v>Left_MiddleFinger</v>
       </c>
-      <c r="K13" s="36" t="str">
+      <c r="K13" s="35" t="str">
         <v>Left_MiddleFinger</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>1613</v>
       </c>
-      <c r="C14" s="36" t="str">
+      <c r="C14" s="35" t="str">
         <v>EarTop"] = 13,</v>
       </c>
-      <c r="D14" s="36" t="str">
+      <c r="D14" s="35" t="str">
         <v>EarTop</v>
       </c>
-      <c r="H14" s="36" t="str">
+      <c r="H14" s="35" t="str">
         <v>EarTop</v>
       </c>
-      <c r="I14" s="36" t="str">
+      <c r="I14" s="35" t="str">
         <v>EarTop</v>
       </c>
-      <c r="J14" s="36" t="str">
+      <c r="J14" s="35" t="str">
         <v>Left_RingFinger</v>
       </c>
-      <c r="K14" s="36" t="str">
+      <c r="K14" s="35" t="str">
         <v>Left_RingFinger</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>1614</v>
       </c>
-      <c r="C15" s="36" t="str">
+      <c r="C15" s="35" t="str">
         <v>Necklace"] = 14,</v>
       </c>
-      <c r="D15" s="36" t="str">
+      <c r="D15" s="35" t="str">
         <v>Necklace</v>
       </c>
-      <c r="H15" s="36" t="str">
+      <c r="H15" s="35" t="str">
         <v>Necklace</v>
       </c>
-      <c r="I15" s="36" t="str">
+      <c r="I15" s="35" t="str">
         <v>Necklace</v>
       </c>
-      <c r="J15" s="36" t="str">
+      <c r="J15" s="35" t="str">
         <v>LeftEye</v>
       </c>
-      <c r="K15" s="36" t="str">
+      <c r="K15" s="35" t="str">
         <v>LeftEye</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>1615</v>
       </c>
-      <c r="C16" s="36" t="str">
+      <c r="C16" s="35" t="str">
         <v>Necklace_Long"] = 15,</v>
       </c>
-      <c r="D16" s="36" t="str">
+      <c r="D16" s="35" t="str">
         <v>Necklace_Long</v>
       </c>
-      <c r="H16" s="36" t="str">
+      <c r="H16" s="35" t="str">
         <v>Necklace_Long</v>
       </c>
-      <c r="I16" s="36" t="str">
+      <c r="I16" s="35" t="str">
         <v>Necklace_Long</v>
       </c>
-      <c r="J16" s="36" t="str">
+      <c r="J16" s="35" t="str">
         <v>LeftWrist</v>
       </c>
-      <c r="K16" s="36" t="str">
+      <c r="K16" s="35" t="str">
         <v>LeftWrist</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>1616</v>
       </c>
-      <c r="C17" s="36" t="str">
+      <c r="C17" s="35" t="str">
         <v>UnderwearTop"] = 16,</v>
       </c>
-      <c r="D17" s="36" t="str">
+      <c r="D17" s="35" t="str">
         <v>UnderwearTop</v>
       </c>
-      <c r="H17" s="36" t="str">
+      <c r="H17" s="35" t="str">
         <v>UnderwearTop</v>
       </c>
-      <c r="I17" s="36" t="str">
+      <c r="I17" s="35" t="str">
         <v>UnderwearTop</v>
       </c>
-      <c r="J17" s="36" t="str">
+      <c r="J17" s="35" t="str">
         <v>Legs1</v>
       </c>
-      <c r="K17" s="36" t="str">
+      <c r="K17" s="35" t="str">
         <v>Legs1</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>1617</v>
       </c>
-      <c r="C18" s="36" t="str">
+      <c r="C18" s="35" t="str">
         <v>UnderwearBottom"] = 17,</v>
       </c>
-      <c r="D18" s="36" t="str">
+      <c r="D18" s="35" t="str">
         <v>UnderwearBottom</v>
       </c>
-      <c r="H18" s="36" t="str">
+      <c r="H18" s="35" t="str">
         <v>UnderwearBottom</v>
       </c>
-      <c r="I18" s="36" t="str">
+      <c r="I18" s="35" t="str">
         <v>UnderwearBottom</v>
       </c>
-      <c r="J18" s="36" t="str">
+      <c r="J18" s="35" t="str">
         <v>Mask</v>
       </c>
-      <c r="K18" s="36" t="str">
+      <c r="K18" s="35" t="str">
         <v>Mask</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>1618</v>
       </c>
-      <c r="C19" s="36" t="str">
+      <c r="C19" s="35" t="str">
         <v>UnderwearExtra1"] = 18,</v>
       </c>
-      <c r="D19" s="36" t="str">
+      <c r="D19" s="35" t="str">
         <v>UnderwearExtra1</v>
       </c>
-      <c r="H19" s="36" t="str">
+      <c r="H19" s="35" t="str">
         <v>UnderwearExtra1</v>
       </c>
-      <c r="I19" s="36" t="str">
+      <c r="I19" s="35" t="str">
         <v>UnderwearExtra1</v>
       </c>
-      <c r="J19" s="36" t="str">
+      <c r="J19" s="35" t="str">
         <v>Neck</v>
       </c>
-      <c r="K19" s="36" t="str">
+      <c r="K19" s="35" t="str">
         <v>Neck</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>1619</v>
       </c>
-      <c r="C20" s="36" t="str">
+      <c r="C20" s="35" t="str">
         <v>UnderwearExtra2"] = 19,</v>
       </c>
-      <c r="D20" s="36" t="str">
+      <c r="D20" s="35" t="str">
         <v>UnderwearExtra2</v>
       </c>
-      <c r="H20" s="36" t="str">
+      <c r="H20" s="35" t="str">
         <v>UnderwearExtra2</v>
       </c>
-      <c r="I20" s="36" t="str">
+      <c r="I20" s="35" t="str">
         <v>UnderwearExtra2</v>
       </c>
-      <c r="J20" s="36" t="str">
+      <c r="J20" s="35" t="str">
         <v>Necklace</v>
       </c>
-      <c r="K20" s="36" t="str">
+      <c r="K20" s="35" t="str">
         <v>Necklace</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>1620</v>
       </c>
-      <c r="C21" s="36" t="str">
+      <c r="C21" s="35" t="str">
         <v>Underwear"] = 20,</v>
       </c>
-      <c r="D21" s="36" t="str">
+      <c r="D21" s="35" t="str">
         <v>Underwear</v>
       </c>
-      <c r="H21" s="36" t="str">
+      <c r="H21" s="35" t="str">
         <v>Underwear</v>
       </c>
-      <c r="I21" s="36" t="str">
+      <c r="I21" s="35" t="str">
         <v>Underwear</v>
       </c>
-      <c r="J21" s="36" t="str">
+      <c r="J21" s="35" t="str">
         <v>Necklace_Long</v>
       </c>
-      <c r="K21" s="36" t="str">
+      <c r="K21" s="35" t="str">
         <v>Necklace_Long</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>1621</v>
       </c>
-      <c r="C22" s="36" t="str">
+      <c r="C22" s="35" t="str">
         <v>Socks"] = 21,</v>
       </c>
-      <c r="D22" s="36" t="str">
+      <c r="D22" s="35" t="str">
         <v>Socks</v>
       </c>
-      <c r="H22" s="36" t="str">
+      <c r="H22" s="35" t="str">
         <v>Socks</v>
       </c>
-      <c r="I22" s="36" t="str">
+      <c r="I22" s="35" t="str">
         <v>Socks</v>
       </c>
-      <c r="J22" s="36" t="str">
+      <c r="J22" s="35" t="str">
         <v>Nose</v>
       </c>
-      <c r="K22" s="36" t="str">
+      <c r="K22" s="35" t="str">
         <v>Nose</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>1622</v>
       </c>
-      <c r="C23" s="36" t="str">
+      <c r="C23" s="35" t="str">
         <v>RightWrist"] = 22,</v>
       </c>
-      <c r="D23" s="36" t="str">
+      <c r="D23" s="35" t="str">
         <v>RightWrist</v>
       </c>
-      <c r="H23" s="36" t="str">
+      <c r="H23" s="35" t="str">
         <v>RightWrist</v>
       </c>
-      <c r="I23" s="36" t="str">
+      <c r="I23" s="35" t="str">
         <v>RightWrist</v>
       </c>
-      <c r="J23" s="36" t="str">
+      <c r="J23" s="35" t="str">
         <v>Pants</v>
       </c>
-      <c r="K23" s="36" t="str">
+      <c r="K23" s="35" t="str">
         <v>Pants</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>1623</v>
       </c>
-      <c r="C24" s="36" t="str">
+      <c r="C24" s="35" t="str">
         <v>LeftWrist"] = 23,</v>
       </c>
-      <c r="D24" s="36" t="str">
+      <c r="D24" s="35" t="str">
         <v>LeftWrist</v>
       </c>
-      <c r="H24" s="36" t="str">
+      <c r="H24" s="35" t="str">
         <v>LeftWrist</v>
       </c>
-      <c r="I24" s="36" t="str">
+      <c r="I24" s="35" t="str">
         <v>LeftWrist</v>
       </c>
-      <c r="J24" s="36" t="str">
+      <c r="J24" s="35" t="str">
         <v>Right_MiddleFinge</v>
       </c>
-      <c r="K24" s="36" t="str">
+      <c r="K24" s="35" t="str">
         <v>Right_MiddleFinge</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>1624</v>
       </c>
-      <c r="C25" s="36" t="str">
+      <c r="C25" s="35" t="str">
         <v>Tail"] = 24,</v>
       </c>
-      <c r="D25" s="36" t="str">
+      <c r="D25" s="35" t="str">
         <v>Tail</v>
       </c>
-      <c r="H25" s="36" t="str">
+      <c r="H25" s="35" t="str">
         <v>Tail</v>
       </c>
-      <c r="I25" s="36" t="str">
+      <c r="I25" s="35" t="str">
         <v>Tail</v>
       </c>
-      <c r="J25" s="36" t="str">
+      <c r="J25" s="35" t="str">
         <v>Right_RingFinger</v>
       </c>
-      <c r="K25" s="36" t="str">
+      <c r="K25" s="35" t="str">
         <v>Right_RingFinger</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="C26" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H26" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I26" s="36" t="str">
-        <v/>
-      </c>
-      <c r="J26" s="36" t="str">
+      <c r="C26" s="35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" s="35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" s="35" t="str">
+        <v/>
+      </c>
+      <c r="J26" s="35" t="str">
         <v>RightEye</v>
       </c>
-      <c r="K26" s="36" t="str">
+      <c r="K26" s="35" t="str">
         <v>RightEye</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>1625</v>
       </c>
-      <c r="C27" s="36" t="str">
+      <c r="C27" s="35" t="str">
         <v>Hands"] = 25,</v>
       </c>
-      <c r="D27" s="36" t="str">
+      <c r="D27" s="35" t="str">
         <v>Hands</v>
       </c>
-      <c r="H27" s="36" t="str">
+      <c r="H27" s="35" t="str">
         <v>Hands</v>
       </c>
-      <c r="I27" s="36" t="str">
+      <c r="I27" s="35" t="str">
         <v>Hands</v>
       </c>
-      <c r="J27" s="36" t="str">
+      <c r="J27" s="35" t="str">
         <v>RightWrist</v>
       </c>
-      <c r="K27" s="36" t="str">
+      <c r="K27" s="35" t="str">
         <v>RightWrist</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="36" t="s">
         <v>1626</v>
       </c>
-      <c r="C28" s="36" t="str">
+      <c r="C28" s="35" t="str">
         <v>Belt"] = 26,</v>
       </c>
-      <c r="D28" s="36" t="str">
+      <c r="D28" s="35" t="str">
         <v>Belt</v>
       </c>
-      <c r="H28" s="36" t="str">
+      <c r="H28" s="35" t="str">
         <v>Belt</v>
       </c>
-      <c r="I28" s="36" t="str">
+      <c r="I28" s="35" t="str">
         <v>Belt</v>
       </c>
-      <c r="J28" s="36" t="str">
+      <c r="J28" s="35" t="str">
         <v>Scarf</v>
       </c>
-      <c r="K28" s="36" t="str">
+      <c r="K28" s="35" t="str">
         <v>Scarf</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="36" t="s">
         <v>1627</v>
       </c>
-      <c r="C29" s="36" t="str">
+      <c r="C29" s="35" t="str">
         <v>BeltExtra"] = 27,</v>
       </c>
-      <c r="D29" s="36" t="str">
+      <c r="D29" s="35" t="str">
         <v>BeltExtra</v>
       </c>
-      <c r="H29" s="36" t="str">
+      <c r="H29" s="35" t="str">
         <v>BeltExtra</v>
       </c>
-      <c r="I29" s="36" t="str">
+      <c r="I29" s="35" t="str">
         <v>BeltExtra</v>
       </c>
-      <c r="J29" s="36" t="str">
+      <c r="J29" s="35" t="str">
         <v>Shirt</v>
       </c>
-      <c r="K29" s="36" t="str">
+      <c r="K29" s="35" t="str">
         <v>Shirt</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="36" t="s">
         <v>1628</v>
       </c>
-      <c r="C30" s="36" t="str">
+      <c r="C30" s="35" t="str">
         <v>AmmoStrap"] = 28,</v>
       </c>
-      <c r="D30" s="36" t="str">
+      <c r="D30" s="35" t="str">
         <v>AmmoStrap</v>
       </c>
-      <c r="H30" s="36" t="str">
+      <c r="H30" s="35" t="str">
         <v>AmmoStrap</v>
       </c>
-      <c r="I30" s="36" t="str">
+      <c r="I30" s="35" t="str">
         <v>AmmoStrap</v>
       </c>
-      <c r="J30" s="36" t="str">
+      <c r="J30" s="35" t="str">
         <v>Shoes</v>
       </c>
-      <c r="K30" s="36" t="str">
+      <c r="K30" s="35" t="str">
         <v>Shoes</v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>1629</v>
       </c>
-      <c r="C31" s="36" t="str">
+      <c r="C31" s="35" t="str">
         <v>Scarf"] = 29,</v>
       </c>
-      <c r="D31" s="36" t="str">
+      <c r="D31" s="35" t="str">
         <v>Scarf</v>
       </c>
-      <c r="H31" s="36" t="str">
+      <c r="H31" s="35" t="str">
         <v>Scarf</v>
       </c>
-      <c r="I31" s="36" t="str">
+      <c r="I31" s="35" t="str">
         <v>Scarf</v>
       </c>
-      <c r="J31" s="36" t="str">
+      <c r="J31" s="35" t="str">
         <v>ShortSleeveShirt</v>
       </c>
-      <c r="K31" s="36" t="str">
+      <c r="K31" s="35" t="str">
         <v>ShortSleeveShirt</v>
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="36" t="s">
         <v>1630</v>
       </c>
-      <c r="C32" s="36" t="str">
+      <c r="C32" s="35" t="str">
         <v>Neck"] = 30,</v>
       </c>
-      <c r="D32" s="36" t="str">
+      <c r="D32" s="35" t="str">
         <v>Neck</v>
       </c>
-      <c r="H32" s="36" t="str">
+      <c r="H32" s="35" t="str">
         <v>Neck</v>
       </c>
-      <c r="I32" s="36" t="str">
+      <c r="I32" s="35" t="str">
         <v>Neck</v>
       </c>
-      <c r="J32" s="36" t="str">
+      <c r="J32" s="35" t="str">
         <v>Skirt</v>
       </c>
-      <c r="K32" s="36" t="str">
+      <c r="K32" s="35" t="str">
         <v>Skirt</v>
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>1631</v>
       </c>
-      <c r="C33" s="36" t="str">
+      <c r="C33" s="35" t="str">
         <v>TorsoExtra"] = 31,</v>
       </c>
-      <c r="D33" s="36" t="str">
+      <c r="D33" s="35" t="str">
         <v>TorsoExtra</v>
       </c>
-      <c r="H33" s="36" t="str">
+      <c r="H33" s="35" t="str">
         <v>TorsoExtra</v>
       </c>
-      <c r="I33" s="36" t="str">
+      <c r="I33" s="35" t="str">
         <v>TorsoExtra</v>
       </c>
-      <c r="J33" s="36" t="str">
+      <c r="J33" s="35" t="str">
         <v>Socks</v>
       </c>
-      <c r="K33" s="36" t="str">
+      <c r="K33" s="35" t="str">
         <v>Socks</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>1632</v>
       </c>
-      <c r="C34" s="36" t="str">
+      <c r="C34" s="35" t="str">
         <v>TankTop"] = 32,</v>
       </c>
-      <c r="D34" s="36" t="str">
+      <c r="D34" s="35" t="str">
         <v>TankTop</v>
       </c>
-      <c r="H34" s="36" t="str">
+      <c r="H34" s="35" t="str">
         <v>TankTop</v>
       </c>
-      <c r="I34" s="36" t="str">
+      <c r="I34" s="35" t="str">
         <v>TankTop</v>
       </c>
-      <c r="J34" s="36" t="str">
+      <c r="J34" s="35" t="str">
         <v>Sweater</v>
       </c>
-      <c r="K34" s="36" t="str">
+      <c r="K34" s="35" t="str">
         <v>Sweater</v>
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>1633</v>
       </c>
-      <c r="C35" s="36" t="str">
+      <c r="C35" s="35" t="str">
         <v>Tshirt"] = 33,</v>
       </c>
-      <c r="D35" s="36" t="str">
+      <c r="D35" s="35" t="str">
         <v>Tshirt</v>
       </c>
-      <c r="H35" s="36" t="str">
+      <c r="H35" s="35" t="str">
         <v>Tshirt</v>
       </c>
-      <c r="I35" s="36" t="str">
+      <c r="I35" s="35" t="str">
         <v>Tshirt</v>
       </c>
-      <c r="J35" s="36" t="str">
+      <c r="J35" s="35" t="str">
         <v>Tail</v>
       </c>
-      <c r="K35" s="36" t="str">
+      <c r="K35" s="35" t="str">
         <v>Tail</v>
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>1634</v>
       </c>
-      <c r="C36" s="36" t="str">
+      <c r="C36" s="35" t="str">
         <v>ShortSleeveShirt"] = 34,</v>
       </c>
-      <c r="D36" s="36" t="str">
+      <c r="D36" s="35" t="str">
         <v>ShortSleeveShirt</v>
       </c>
-      <c r="H36" s="36" t="str">
+      <c r="H36" s="35" t="str">
         <v>ShortSleeveShirt</v>
       </c>
-      <c r="I36" s="36" t="str">
+      <c r="I36" s="35" t="str">
         <v>ShortSleeveShirt</v>
       </c>
-      <c r="J36" s="36" t="str">
+      <c r="J36" s="35" t="str">
         <v>TankTop</v>
       </c>
-      <c r="K36" s="36" t="str">
+      <c r="K36" s="35" t="str">
         <v>TankTop</v>
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>1635</v>
       </c>
-      <c r="C37" s="36" t="str">
+      <c r="C37" s="35" t="str">
         <v>Shirt"] = 35,</v>
       </c>
-      <c r="D37" s="36" t="str">
+      <c r="D37" s="35" t="str">
         <v>Shirt</v>
       </c>
-      <c r="H37" s="36" t="str">
+      <c r="H37" s="35" t="str">
         <v>Shirt</v>
       </c>
-      <c r="I37" s="36" t="str">
+      <c r="I37" s="35" t="str">
         <v>Shirt</v>
       </c>
-      <c r="J37" s="36" t="str">
+      <c r="J37" s="35" t="str">
         <v>Torso1Legs1</v>
       </c>
-      <c r="K37" s="36" t="str">
+      <c r="K37" s="35" t="str">
         <v>Torso1Legs1</v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>1636</v>
       </c>
-      <c r="C38" s="36" t="str">
+      <c r="C38" s="35" t="str">
         <v>Sweater"] = 36,</v>
       </c>
-      <c r="D38" s="36" t="str">
+      <c r="D38" s="35" t="str">
         <v>Sweater</v>
       </c>
-      <c r="H38" s="36" t="str">
+      <c r="H38" s="35" t="str">
         <v>Sweater</v>
       </c>
-      <c r="I38" s="36" t="str">
+      <c r="I38" s="35" t="str">
         <v>Sweater</v>
       </c>
-      <c r="J38" s="36" t="str">
+      <c r="J38" s="35" t="str">
         <v>TorsoExtra</v>
       </c>
-      <c r="K38" s="36" t="str">
+      <c r="K38" s="35" t="str">
         <v>TorsoExtra</v>
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>1637</v>
       </c>
-      <c r="C39" s="36" t="str">
+      <c r="C39" s="35" t="str">
         <v>TorsoExtraVest"] = 37,</v>
       </c>
-      <c r="D39" s="36" t="str">
+      <c r="D39" s="35" t="str">
         <v>TorsoExtraVest</v>
       </c>
-      <c r="H39" s="36" t="str">
+      <c r="H39" s="35" t="str">
         <v>TorsoExtraVest</v>
       </c>
-      <c r="I39" s="36" t="str">
+      <c r="I39" s="35" t="str">
         <v>TorsoExtraVest</v>
       </c>
-      <c r="J39" s="36" t="str">
+      <c r="J39" s="35" t="str">
         <v>TorsoExtraVest</v>
       </c>
-      <c r="K39" s="36" t="str">
+      <c r="K39" s="35" t="str">
         <v>TorsoExtraVest</v>
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>1638</v>
       </c>
-      <c r="C40" s="36" t="str">
+      <c r="C40" s="35" t="str">
         <v>Pants"] = 38,</v>
       </c>
-      <c r="D40" s="36" t="str">
+      <c r="D40" s="35" t="str">
         <v>Pants</v>
       </c>
-      <c r="H40" s="36" t="str">
+      <c r="H40" s="35" t="str">
         <v>Pants</v>
       </c>
-      <c r="I40" s="36" t="str">
+      <c r="I40" s="35" t="str">
         <v>Pants</v>
       </c>
-      <c r="J40" s="36" t="str">
+      <c r="J40" s="35" t="str">
         <v>Tshirt</v>
       </c>
-      <c r="K40" s="36" t="str">
+      <c r="K40" s="35" t="str">
         <v>Tshirt</v>
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="36" t="s">
         <v>1639</v>
       </c>
-      <c r="C41" s="36" t="str">
+      <c r="C41" s="35" t="str">
         <v>Skirt"] = 39,</v>
       </c>
-      <c r="D41" s="36" t="str">
+      <c r="D41" s="35" t="str">
         <v>Skirt</v>
       </c>
-      <c r="H41" s="36" t="str">
+      <c r="H41" s="35" t="str">
         <v>Skirt</v>
       </c>
-      <c r="I41" s="36" t="str">
+      <c r="I41" s="35" t="str">
         <v>Skirt</v>
       </c>
-      <c r="J41" s="36" t="str">
+      <c r="J41" s="35" t="str">
         <v>Underwear</v>
       </c>
-      <c r="K41" s="36" t="str">
+      <c r="K41" s="35" t="str">
         <v>Underwear</v>
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="36" t="s">
         <v>1640</v>
       </c>
-      <c r="C42" s="36" t="str">
+      <c r="C42" s="35" t="str">
         <v>Torso1Legs1"] = 40,</v>
       </c>
-      <c r="D42" s="36" t="str">
+      <c r="D42" s="35" t="str">
         <v>Torso1Legs1</v>
       </c>
-      <c r="H42" s="36" t="str">
+      <c r="H42" s="35" t="str">
         <v>Torso1Legs1</v>
       </c>
-      <c r="I42" s="36" t="str">
+      <c r="I42" s="35" t="str">
         <v>Torso1Legs1</v>
       </c>
-      <c r="J42" s="36" t="str">
+      <c r="J42" s="35" t="str">
         <v>UnderwearBottom</v>
       </c>
-      <c r="K42" s="36" t="str">
+      <c r="K42" s="35" t="str">
         <v>UnderwearBottom</v>
       </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="36" t="s">
         <v>1641</v>
       </c>
-      <c r="C43" s="36" t="str">
+      <c r="C43" s="35" t="str">
         <v>Legs1"] = 41,</v>
       </c>
-      <c r="D43" s="36" t="str">
+      <c r="D43" s="35" t="str">
         <v>Legs1</v>
       </c>
-      <c r="H43" s="36" t="str">
+      <c r="H43" s="35" t="str">
         <v>Legs1</v>
       </c>
-      <c r="I43" s="36" t="str">
+      <c r="I43" s="35" t="str">
         <v>Legs1</v>
       </c>
-      <c r="J43" s="36" t="str">
+      <c r="J43" s="35" t="str">
         <v>UnderwearExtra1</v>
       </c>
-      <c r="K43" s="36" t="str">
+      <c r="K43" s="35" t="str">
         <v>UnderwearExtra1</v>
       </c>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="36" t="s">
         <v>1642</v>
       </c>
-      <c r="C44" s="36" t="str">
+      <c r="C44" s="35" t="str">
         <v>Shoes"] = 42,</v>
       </c>
-      <c r="D44" s="36" t="str">
+      <c r="D44" s="35" t="str">
         <v>Shoes</v>
       </c>
-      <c r="H44" s="36" t="str">
+      <c r="H44" s="35" t="str">
         <v>Shoes</v>
       </c>
-      <c r="I44" s="36" t="str">
+      <c r="I44" s="35" t="str">
         <v>Shoes</v>
       </c>
-      <c r="J44" s="36" t="str">
+      <c r="J44" s="35" t="str">
         <v>UnderwearExtra2</v>
       </c>
-      <c r="K44" s="36" t="str">
+      <c r="K44" s="35" t="str">
         <v>UnderwearExtra2</v>
       </c>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="36" t="s">
         <v>1643</v>
       </c>
-      <c r="C45" s="36" t="str">
+      <c r="C45" s="35" t="str">
         <v>Jacket"] = 43,</v>
       </c>
-      <c r="D45" s="36" t="str">
+      <c r="D45" s="35" t="str">
         <v>Jacket</v>
       </c>
-      <c r="H45" s="36" t="str">
+      <c r="H45" s="35" t="str">
         <v>Jacket</v>
       </c>
-      <c r="I45" s="36" t="str">
+      <c r="I45" s="35" t="str">
         <v>Jacket</v>
       </c>
-      <c r="J45" s="36" t="str">
+      <c r="J45" s="35" t="str">
         <v>UnderwearTop</v>
       </c>
-      <c r="K45" s="36" t="str">
+      <c r="K45" s="35" t="str">
         <v>UnderwearTop</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="35" t="s">
         <v>1645</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="35" t="s">
         <v>1646</v>
       </c>
-      <c r="D57" s="36" t="str" cm="1">
+      <c r="D57" s="35" t="str" cm="1">
         <f t="array" ref="D57:D128">_xlfn.UNIQUE(C57:C128)</f>
         <v>Wound</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="35" t="s">
         <v>1648</v>
       </c>
-      <c r="D58" s="36" t="str">
+      <c r="D58" s="35" t="str">
         <v>BeltExtra</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="35" t="s">
         <v>1649</v>
       </c>
-      <c r="D59" s="36" t="str">
+      <c r="D59" s="35" t="str">
         <v>Belt</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="35" t="s">
         <v>1647</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="35" t="s">
         <v>1650</v>
       </c>
-      <c r="D60" s="36" t="str">
+      <c r="D60" s="35" t="str">
         <v>BellyButton</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="35" t="s">
         <v>1651</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="35" t="s">
         <v>1652</v>
       </c>
-      <c r="D61" s="36" t="str">
+      <c r="D61" s="35" t="str">
         <v>MakeUp_FullFace</v>
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="35" t="s">
         <v>1651</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="D62" s="36" t="str">
+      <c r="D62" s="35" t="str">
         <v>MakeUp_Eyes</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="35" t="s">
         <v>1654</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="35" t="s">
         <v>1655</v>
       </c>
-      <c r="D63" s="36" t="str">
+      <c r="D63" s="35" t="str">
         <v>MakeUp_EyesShadow</v>
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="35" t="s">
         <v>1654</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="35" t="s">
         <v>1656</v>
       </c>
-      <c r="D64" s="36" t="str">
+      <c r="D64" s="35" t="str">
         <v>MakeUp_Lips</v>
       </c>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="35" t="s">
         <v>1657</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="35" t="s">
         <v>1658</v>
       </c>
-      <c r="D65" s="36" t="str">
+      <c r="D65" s="35" t="str">
         <v>Mask</v>
       </c>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="35" t="s">
         <v>1657</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="35" t="s">
         <v>1659</v>
       </c>
-      <c r="D66" s="36" t="str">
+      <c r="D66" s="35" t="str">
         <v>MaskEyes</v>
       </c>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="35" t="s">
         <v>1657</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="35" t="s">
         <v>1660</v>
       </c>
-      <c r="D67" s="36" t="str">
+      <c r="D67" s="35" t="str">
         <v>MaskFull</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="35" t="s">
         <v>1661</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="35" t="s">
         <v>1662</v>
       </c>
-      <c r="D68" s="36" t="str">
+      <c r="D68" s="35" t="str">
         <v>Underwear</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="35" t="s">
         <v>1661</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="35" t="s">
         <v>1663</v>
       </c>
-      <c r="D69" s="36" t="str">
+      <c r="D69" s="35" t="str">
         <v>UnderwearBottom</v>
       </c>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="35" t="s">
         <v>1664</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="35" t="s">
         <v>1665</v>
       </c>
-      <c r="D70" s="36" t="str">
+      <c r="D70" s="35" t="str">
         <v>UnderwearTop</v>
       </c>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="35" t="s">
         <v>1664</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="35" t="s">
         <v>1666</v>
       </c>
-      <c r="D71" s="36" t="str">
+      <c r="D71" s="35" t="str">
         <v>UnderwearExtra1</v>
       </c>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="35" t="s">
         <v>1664</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="35" t="s">
         <v>1667</v>
       </c>
-      <c r="D72" s="36" t="str">
+      <c r="D72" s="35" t="str">
         <v>UnderwearExtra2</v>
       </c>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="35" t="s">
         <v>1668</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="35" t="s">
         <v>1669</v>
       </c>
-      <c r="D73" s="36" t="str">
+      <c r="D73" s="35" t="str">
         <v>Hat</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="35" t="s">
         <v>1668</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="35" t="s">
         <v>1644</v>
       </c>
-      <c r="D74" s="36" t="str">
+      <c r="D74" s="35" t="str">
         <v>FullHat</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="35" t="s">
         <v>1670</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="35" t="s">
         <v>1671</v>
       </c>
-      <c r="D75" s="36" t="str">
+      <c r="D75" s="35" t="str">
         <v>Ears</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="35" t="s">
         <v>1670</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>1672</v>
       </c>
-      <c r="D76" s="36" t="str">
+      <c r="D76" s="35" t="str">
         <v>EarTop</v>
       </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="35" t="s">
         <v>1670</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>1673</v>
       </c>
-      <c r="D77" s="36" t="str">
+      <c r="D77" s="35" t="str">
         <v>Nose</v>
       </c>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="35" t="s">
         <v>1674</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>1675</v>
       </c>
-      <c r="D78" s="36" t="str">
+      <c r="D78" s="35" t="str">
         <v>Torso1</v>
       </c>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="35" t="s">
         <v>1674</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="35" t="s">
         <v>1676</v>
       </c>
-      <c r="D79" s="36" t="str">
+      <c r="D79" s="35" t="str">
         <v>Torso1Legs1</v>
       </c>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="35" t="s">
         <v>1677</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="35" t="s">
         <v>1678</v>
       </c>
-      <c r="D80" s="36" t="str">
+      <c r="D80" s="35" t="str">
         <v>TankTop</v>
       </c>
     </row>
     <row r="81" spans="2:4">
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="35" t="s">
         <v>1677</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="35" t="s">
         <v>1679</v>
       </c>
-      <c r="D81" s="36" t="str">
+      <c r="D81" s="35" t="str">
         <v>Tshirt</v>
       </c>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="35" t="s">
         <v>1677</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="35" t="s">
         <v>1680</v>
       </c>
-      <c r="D82" s="36" t="str">
+      <c r="D82" s="35" t="str">
         <v>ShortSleeveShirt</v>
       </c>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="35" t="s">
         <v>1681</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="35" t="s">
         <v>1682</v>
       </c>
-      <c r="D83" s="36" t="str">
+      <c r="D83" s="35" t="str">
         <v>LeftWrist</v>
       </c>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="35" t="s">
         <v>1683</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="35" t="s">
         <v>1684</v>
       </c>
-      <c r="D84" s="36" t="str">
+      <c r="D84" s="35" t="str">
         <v>RightWrist</v>
       </c>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="35" t="s">
         <v>1683</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="35" t="s">
         <v>1685</v>
       </c>
-      <c r="D85" s="36" t="str">
+      <c r="D85" s="35" t="str">
         <v>Shirt</v>
       </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="35" t="s">
         <v>1683</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="35" t="s">
         <v>1686</v>
       </c>
-      <c r="D86" s="36" t="str">
+      <c r="D86" s="35" t="str">
         <v>Neck</v>
       </c>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="35" t="s">
         <v>1687</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="35" t="s">
         <v>1688</v>
       </c>
-      <c r="D87" s="36" t="str">
+      <c r="D87" s="35" t="str">
         <v>Necklace</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="35" t="s">
         <v>1687</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="35" t="s">
         <v>1689</v>
       </c>
-      <c r="D88" s="36" t="str">
+      <c r="D88" s="35" t="str">
         <v>Necklace_Long</v>
       </c>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="35" t="s">
         <v>1687</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="35" t="s">
         <v>1690</v>
       </c>
-      <c r="D89" s="36" t="str">
+      <c r="D89" s="35" t="str">
         <v>Right_MiddleFinger</v>
       </c>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="35" t="s">
         <v>1691</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="35" t="s">
         <v>1692</v>
       </c>
-      <c r="D90" s="36" t="str">
+      <c r="D90" s="35" t="str">
         <v>Left_MiddleFinger</v>
       </c>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="35" t="s">
         <v>1691</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="35" t="s">
         <v>1693</v>
       </c>
-      <c r="D91" s="36" t="str">
+      <c r="D91" s="35" t="str">
         <v>Left_RingFinger</v>
       </c>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="35" t="s">
         <v>1694</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="35" t="s">
         <v>1695</v>
       </c>
-      <c r="D92" s="36" t="str">
+      <c r="D92" s="35" t="str">
         <v>Right_RingFinger</v>
       </c>
     </row>
     <row r="93" spans="2:4">
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="35" t="s">
         <v>1694</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="35" t="s">
         <v>1696</v>
       </c>
-      <c r="D93" s="36" t="str">
+      <c r="D93" s="35" t="str">
         <v>Hands</v>
       </c>
     </row>
     <row r="94" spans="2:4">
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="35" t="s">
         <v>1694</v>
       </c>
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="35" t="s">
         <v>1697</v>
       </c>
-      <c r="D94" s="36" t="str">
+      <c r="D94" s="35" t="str">
         <v>HandsLeft</v>
       </c>
     </row>
     <row r="95" spans="2:4">
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="35" t="s">
         <v>1698</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="35" t="s">
         <v>1699</v>
       </c>
-      <c r="D95" s="36" t="str">
+      <c r="D95" s="35" t="str">
         <v>HandsRight</v>
       </c>
     </row>
     <row r="96" spans="2:4">
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="35" t="s">
         <v>1698</v>
       </c>
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="35" t="s">
         <v>1700</v>
       </c>
-      <c r="D96" s="36" t="str">
+      <c r="D96" s="35" t="str">
         <v>Socks</v>
       </c>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="35" t="s">
         <v>1698</v>
       </c>
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="35" t="s">
         <v>1701</v>
       </c>
-      <c r="D97" s="36" t="str">
+      <c r="D97" s="35" t="str">
         <v>Legs1</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="35" t="s">
         <v>1702</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="35" t="s">
         <v>1703</v>
       </c>
-      <c r="D98" s="36" t="str">
+      <c r="D98" s="35" t="str">
         <v>Pants</v>
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="35" t="s">
         <v>1702</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="35" t="s">
         <v>1704</v>
       </c>
-      <c r="D99" s="36" t="str">
+      <c r="D99" s="35" t="str">
         <v>Skirt</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="35" t="s">
         <v>1705</v>
       </c>
-      <c r="C100" s="36" t="s">
+      <c r="C100" s="35" t="s">
         <v>1706</v>
       </c>
-      <c r="D100" s="36" t="str">
+      <c r="D100" s="35" t="str">
         <v>Legs5</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="35" t="s">
         <v>1705</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="35" t="s">
         <v>1707</v>
       </c>
-      <c r="D101" s="36" t="str">
+      <c r="D101" s="35" t="str">
         <v>Dress</v>
       </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="36" t="s">
+      <c r="B102" s="35" t="s">
         <v>1705</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="35" t="s">
         <v>1708</v>
       </c>
-      <c r="D102" s="36" t="str">
+      <c r="D102" s="35" t="str">
         <v>BodyCostume</v>
       </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="35" t="s">
         <v>1709</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="35" t="s">
         <v>1710</v>
       </c>
-      <c r="D103" s="36" t="str">
+      <c r="D103" s="35" t="str">
         <v>Sweater</v>
       </c>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="35" t="s">
         <v>1709</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="35" t="s">
         <v>1711</v>
       </c>
-      <c r="D104" s="36" t="str">
+      <c r="D104" s="35" t="str">
         <v>SweaterHat</v>
       </c>
     </row>
     <row r="105" spans="2:4">
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="35" t="s">
         <v>1709</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="35" t="s">
         <v>1712</v>
       </c>
-      <c r="D105" s="36" t="str">
+      <c r="D105" s="35" t="str">
         <v>Jacket</v>
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="35" t="s">
         <v>1713</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="35" t="s">
         <v>1714</v>
       </c>
-      <c r="D106" s="36" t="str">
+      <c r="D106" s="35" t="str">
         <v>Jacket_Down</v>
       </c>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="35" t="s">
         <v>1713</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="35" t="s">
         <v>1715</v>
       </c>
-      <c r="D107" s="36" t="str">
+      <c r="D107" s="35" t="str">
         <v>Jacket_Bulky</v>
       </c>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="35" t="s">
         <v>1716</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="35" t="s">
         <v>1717</v>
       </c>
-      <c r="D108" s="36" t="str">
+      <c r="D108" s="35" t="str">
         <v>JacketHat</v>
       </c>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="35" t="s">
         <v>1716</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="35" t="s">
         <v>1718</v>
       </c>
-      <c r="D109" s="36" t="str">
+      <c r="D109" s="35" t="str">
         <v>JacketHat_Bulky</v>
       </c>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="35" t="s">
         <v>1716</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="35" t="s">
         <v>1719</v>
       </c>
-      <c r="D110" s="36" t="str">
+      <c r="D110" s="35" t="str">
         <v>JacketSuit</v>
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="36" t="s">
+      <c r="B111" s="35" t="s">
         <v>1720</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="35" t="s">
         <v>1721</v>
       </c>
-      <c r="D111" s="36" t="str">
+      <c r="D111" s="35" t="str">
         <v>FullSuit</v>
       </c>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="35" t="s">
         <v>1720</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="35" t="s">
         <v>1722</v>
       </c>
-      <c r="D112" s="36" t="str">
+      <c r="D112" s="35" t="str">
         <v>Boilersuit</v>
       </c>
     </row>
     <row r="113" spans="2:4">
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="35" t="s">
         <v>1723</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="35" t="s">
         <v>1724</v>
       </c>
-      <c r="D113" s="36" t="str">
+      <c r="D113" s="35" t="str">
         <v>FullSuitHead</v>
       </c>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="35" t="s">
         <v>1723</v>
       </c>
-      <c r="C114" s="36" t="s">
+      <c r="C114" s="35" t="s">
         <v>1725</v>
       </c>
-      <c r="D114" s="36" t="str">
+      <c r="D114" s="35" t="str">
         <v>FullTop</v>
       </c>
     </row>
     <row r="115" spans="2:4">
-      <c r="B115" s="36" t="s">
+      <c r="B115" s="35" t="s">
         <v>1723</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C115" s="35" t="s">
         <v>1726</v>
       </c>
-      <c r="D115" s="36" t="str">
+      <c r="D115" s="35" t="str">
         <v>BathRobe</v>
       </c>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="36" t="s">
+      <c r="B116" s="35" t="s">
         <v>1727</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C116" s="35" t="s">
         <v>1728</v>
       </c>
-      <c r="D116" s="36" t="str">
+      <c r="D116" s="35" t="str">
         <v>Shoes</v>
       </c>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="36" t="s">
+      <c r="B117" s="35" t="s">
         <v>1727</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C117" s="35" t="s">
         <v>1729</v>
       </c>
-      <c r="D117" s="36" t="str">
+      <c r="D117" s="35" t="str">
         <v>FannyPackFront</v>
       </c>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="35" t="s">
         <v>1730</v>
       </c>
-      <c r="C118" s="36" t="s">
+      <c r="C118" s="35" t="s">
         <v>1731</v>
       </c>
-      <c r="D118" s="36" t="str">
+      <c r="D118" s="35" t="str">
         <v>FannyPackBack</v>
       </c>
     </row>
     <row r="119" spans="2:4">
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="35" t="s">
         <v>1730</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="35" t="s">
         <v>1732</v>
       </c>
-      <c r="D119" s="36" t="str">
+      <c r="D119" s="35" t="str">
         <v>AmmoStrap</v>
       </c>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="36" t="s">
+      <c r="B120" s="35" t="s">
         <v>1733</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="35" t="s">
         <v>1734</v>
       </c>
-      <c r="D120" s="36" t="str">
+      <c r="D120" s="35" t="str">
         <v>TorsoExtra</v>
       </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="36" t="s">
+      <c r="B121" s="35" t="s">
         <v>1733</v>
       </c>
-      <c r="C121" s="36" t="s">
+      <c r="C121" s="35" t="s">
         <v>1735</v>
       </c>
-      <c r="D121" s="36" t="str">
+      <c r="D121" s="35" t="str">
         <v>TorsoExtraVest</v>
       </c>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="35" t="s">
         <v>1736</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="35" t="s">
         <v>1737</v>
       </c>
-      <c r="D122" s="36" t="str">
+      <c r="D122" s="35" t="str">
         <v>Tail</v>
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" s="36" t="s">
+      <c r="B123" s="35" t="s">
         <v>1736</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="35" t="s">
         <v>1738</v>
       </c>
-      <c r="D123" s="36" t="str">
+      <c r="D123" s="35" t="str">
         <v>Back</v>
       </c>
     </row>
     <row r="124" spans="2:4">
-      <c r="B124" s="36" t="s">
+      <c r="B124" s="35" t="s">
         <v>1739</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="35" t="s">
         <v>1740</v>
       </c>
-      <c r="D124" s="36" t="str">
+      <c r="D124" s="35" t="str">
         <v>LeftEye</v>
       </c>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="35" t="s">
         <v>1739</v>
       </c>
-      <c r="C125" s="36" t="s">
+      <c r="C125" s="35" t="s">
         <v>1741</v>
       </c>
-      <c r="D125" s="36" t="str">
+      <c r="D125" s="35" t="str">
         <v>RightEye</v>
       </c>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" s="36" t="s">
+      <c r="B126" s="35" t="s">
         <v>1739</v>
       </c>
-      <c r="C126" s="36" t="s">
+      <c r="C126" s="35" t="s">
         <v>1742</v>
       </c>
-      <c r="D126" s="36" t="str">
+      <c r="D126" s="35" t="str">
         <v>Eyes</v>
       </c>
     </row>
     <row r="127" spans="2:4">
-      <c r="B127" s="36" t="s">
+      <c r="B127" s="35" t="s">
         <v>1743</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="35" t="s">
         <v>1744</v>
       </c>
-      <c r="D127" s="36" t="str">
+      <c r="D127" s="35" t="str">
         <v>Scarf</v>
       </c>
     </row>
     <row r="128" spans="2:4">
-      <c r="B128" s="36" t="s">
+      <c r="B128" s="35" t="s">
         <v>1743</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="35" t="s">
         <v>1745</v>
       </c>
-      <c r="D128" s="36" t="str">
+      <c r="D128" s="35" t="str">
         <v>ZedDmg</v>
       </c>
     </row>
@@ -58637,4 +58703,224 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74DBDB0-A6F9-48E5-BFF4-FF928C603B54}">
+  <dimension ref="B2:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="15.7109375" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="C2" s="37" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="14" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>-30</v>
+      </c>
+      <c r="D3" s="14">
+        <v>-30</v>
+      </c>
+      <c r="E3" s="14">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="14" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>60</v>
+      </c>
+      <c r="D4" s="14">
+        <v>60</v>
+      </c>
+      <c r="E4" s="14">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4246404-7C08-4946-9B9D-68229E5E81F4}">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="38"/>
+    <col min="2" max="2" width="23.85546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="37" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D62547-C653-4945-912F-0C95B906EA98}">
+  <dimension ref="B3:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="11.42578125" style="14"/>
+    <col min="9" max="9" width="12.28515625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="14"/>
+    <col min="12" max="12" width="18.140625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="22" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13">
+      <c r="C3" s="14" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>1760</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>1757</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="14" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14">
+        <f>D4-C4</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SQRT(F4^2+F5^2)</f>
+        <v>5</v>
+      </c>
+      <c r="H4" s="14">
+        <f>-F5</f>
+        <v>-4</v>
+      </c>
+      <c r="I4" s="41">
+        <f>SQRT(E4^2+E5^2)</f>
+        <v>12.041594578792296</v>
+      </c>
+      <c r="J4" s="42" cm="1">
+        <f t="array" ref="J4:J5">H4:H5/G4*I4</f>
+        <v>-9.633275663033837</v>
+      </c>
+      <c r="L4" s="42" cm="1">
+        <f t="array" ref="L4:L5">_xlfn.ANCHORARRAY(J4)</f>
+        <v>-9.633275663033837</v>
+      </c>
+      <c r="M4" s="42" cm="1">
+        <f t="array" ref="M4:M5">-_xlfn.ANCHORARRAY(J4)</f>
+        <v>9.633275663033837</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="14" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>7</v>
+      </c>
+      <c r="E5" s="14">
+        <v>9</v>
+      </c>
+      <c r="F5" s="14">
+        <f>D5-C5</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="14">
+        <f>F4</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="42">
+        <v>7.2249567472753773</v>
+      </c>
+      <c r="L5" s="14">
+        <v>7.2249567472753773</v>
+      </c>
+      <c r="M5" s="14">
+        <v>-7.2249567472753773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/TLOU Infected data.xlsx
+++ b/images/TLOU Infected data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Zomboid\Workshop\The Last of Us Infected\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA54CA5-9ACD-4B67-80E5-DCBCB90E4449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608DC2DD-66FE-486E-9B20-A34157ECF5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="8" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="9" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zombie stats" sheetId="5" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Stalker behavior data" sheetId="8" r:id="rId7"/>
     <sheet name="Stalker behavior" sheetId="7" r:id="rId8"/>
     <sheet name="Stalker trajectories" sheetId="9" r:id="rId9"/>
+    <sheet name="FOV" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="1780">
   <si>
     <t>TSSF</t>
   </si>
@@ -5349,6 +5350,63 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>day light</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>a, b</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>Eagled Eyed</t>
+  </si>
+  <si>
+    <t>Cat's Eyes</t>
+  </si>
+  <si>
+    <t>Eagled Eyed + Cat's Eyes</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>0.6950515251148672</t>
+  </si>
+  <si>
+    <t>0.9615097382481308</t>
+  </si>
+  <si>
+    <t>0.8781706094741821</t>
+  </si>
+  <si>
+    <t>0.9963355919591437</t>
+  </si>
+  <si>
+    <t>0.8783655762672424</t>
+  </si>
+  <si>
+    <t>0.7024542792039848</t>
   </si>
 </sst>
 </file>
@@ -5356,9 +5414,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5400,6 +5458,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6D7A72"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -5687,7 +5751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5790,14 +5854,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13388,14 +13459,14 @@
       <c r="G24" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="44" t="s">
         <v>1595</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickTop="1">
       <c r="B27" s="17" t="s">
@@ -13649,6 +13720,359 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B26:G26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3B99B5-09C8-466A-BFD7-F652704B72E8}">
+  <dimension ref="B4:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:12">
+      <c r="C4" s="45" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="D5" s="43" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="43" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>-0.996</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="G7" s="2" cm="1">
+        <f t="array" ref="G7:G8">D7:D8-D6</f>
+        <v>-9.5999999999999974E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f>SLOPE(_xlfn.ANCHORARRAY(G7),E7:E8)</f>
+        <v>-0.63584488179806686</v>
+      </c>
+      <c r="I7" s="2" cm="1">
+        <f t="array" ref="I7:I8">E7:E8*-0.6358 + 0.45</f>
+        <v>-9.5961459999999998E-2</v>
+      </c>
+      <c r="J7" s="2" cm="1">
+        <f t="array" ref="J7:J8">D6+_xlfn.ANCHORARRAY(I7)</f>
+        <v>-0.99596145999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="H8" s="2">
+        <f>INTERCEPT(_xlfn.ANCHORARRAY(G7),E7:E8)</f>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="C11" s="45" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="D12" s="43" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="43" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>1767</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-0.30342419828056977</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D14" s="2" cm="1">
+        <f t="array" ref="D14:D15">-_xlfn.NUMBERVALUE(REPLACE(C14:C15,2,1,","))</f>
+        <v>-0.96150973824813002</v>
+      </c>
+      <c r="E14" s="2">
+        <f>_xlfn.NUMBERVALUE(REPLACE(C16,2,1,","))</f>
+        <v>0.87817060947418202</v>
+      </c>
+      <c r="G14" s="2" cm="1">
+        <f t="array" ref="G14:G15">D14:D15-D13</f>
+        <v>-6.1509738248129997E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <f>(G14-G15)/(E14-E15)</f>
+        <v>-0.30342419828056977</v>
+      </c>
+      <c r="I14" s="2" cm="1">
+        <f t="array" ref="I14:I15">E14:E15*H14 + H15</f>
+        <v>-6.1509738248129997E-2</v>
+      </c>
+      <c r="J14" s="2" cm="1">
+        <f t="array" ref="J14:J15">D13+_xlfn.ANCHORARRAY(I14)</f>
+        <v>-0.96150973824813002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.20494847488513299</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-0.69505152511486701</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.20494847488513301</v>
+      </c>
+      <c r="H15" s="2">
+        <f>INTERCEPT(_xlfn.ANCHORARRAY(G14),E14:E15)</f>
+        <v>0.20494847488513301</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.20494847488513301</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-0.69505152511486701</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="C16" s="2" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="C17" s="45" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="D18" s="43" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="43" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D20" s="2" cm="1">
+        <f t="array" ref="D20:D21">-_xlfn.NUMBERVALUE(REPLACE(C20:C21,2,1,","))</f>
+        <v>-0.99633559195914301</v>
+      </c>
+      <c r="E20" s="2">
+        <f>_xlfn.NUMBERVALUE(REPLACE(C22,2,1,","))</f>
+        <v>0.87836557626724199</v>
+      </c>
+      <c r="G20" s="2" cm="1">
+        <f t="array" ref="G20:G21">D20:D21-D19</f>
+        <v>-9.6335591959142985E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <f>SLOPE(_xlfn.ANCHORARRAY(G20),E20:E21)</f>
+        <v>-0.33457744781399068</v>
+      </c>
+      <c r="I20" s="2" cm="1">
+        <f t="array" ref="I20:I21">E20:E21*-0.6358 + 0.45</f>
+        <v>-0.1084648333907125</v>
+      </c>
+      <c r="J20" s="2" cm="1">
+        <f t="array" ref="J20:J21">D19+_xlfn.ANCHORARRAY(I20)</f>
+        <v>-1.0084648333907125</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-0.33457744781399068</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-0.70245427920398396</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.19754572079601607</v>
+      </c>
+      <c r="H21" s="2">
+        <f>INTERCEPT(_xlfn.ANCHORARRAY(G20),E20:E21)</f>
+        <v>0.19754572079601604</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-0.45</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.19754572079601601</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="C22" s="2" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58803,7 +59227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D62547-C653-4945-912F-0C95B906EA98}">
   <dimension ref="B3:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -58872,19 +59296,19 @@
         <f>-F5</f>
         <v>-4</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="40">
         <f>SQRT(E4^2+E5^2)</f>
         <v>12.041594578792296</v>
       </c>
-      <c r="J4" s="42" cm="1">
+      <c r="J4" s="41" cm="1">
         <f t="array" ref="J4:J5">H4:H5/G4*I4</f>
         <v>-9.633275663033837</v>
       </c>
-      <c r="L4" s="42" cm="1">
+      <c r="L4" s="41" cm="1">
         <f t="array" ref="L4:L5">_xlfn.ANCHORARRAY(J4)</f>
         <v>-9.633275663033837</v>
       </c>
-      <c r="M4" s="42" cm="1">
+      <c r="M4" s="41" cm="1">
         <f t="array" ref="M4:M5">-_xlfn.ANCHORARRAY(J4)</f>
         <v>9.633275663033837</v>
       </c>
@@ -58910,7 +59334,7 @@
         <f>F4</f>
         <v>3</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="41">
         <v>7.2249567472753773</v>
       </c>
       <c r="L5" s="14">

--- a/images/TLOU Infected data.xlsx
+++ b/images/TLOU Infected data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Zomboid\Workshop\The Last of Us Infected\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608DC2DD-66FE-486E-9B20-A34157ECF5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146D9482-8400-49C9-B2B4-67AD382C32DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="9" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="10" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zombie stats" sheetId="5" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Stalker behavior" sheetId="7" r:id="rId8"/>
     <sheet name="Stalker trajectories" sheetId="9" r:id="rId9"/>
     <sheet name="FOV" sheetId="10" r:id="rId10"/>
+    <sheet name="Infection time" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="1791">
   <si>
     <t>TSSF</t>
   </si>
@@ -5407,6 +5408,39 @@
   </si>
   <si>
     <t>0.7024542792039848</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>alea</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>total time</t>
+  </si>
+  <si>
+    <t>reduced</t>
   </si>
 </sst>
 </file>
@@ -13729,7 +13763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3B99B5-09C8-466A-BFD7-F652704B72E8}">
   <dimension ref="B4:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -14074,6 +14108,685 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C17:J17"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806FD5A-E7F6-448C-8A68-236BBC78835C}">
+  <dimension ref="B2:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="14" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="14" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" cm="1">
+        <f t="array" ref="E3:E5">COUNTIF(F8:F29,B3:B5)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" cm="1">
+        <f t="array" aca="1" ref="F3:F5" ca="1">SUMIF(F8:F29,B3:B5,_xlfn.ANCHORARRAY(L8))</f>
+        <v>6.9734724139598461</v>
+      </c>
+      <c r="G3" s="14" cm="1">
+        <f t="array" aca="1" ref="G3:G5" ca="1">F3:F5/E3:E5</f>
+        <v>6.9734724139598461</v>
+      </c>
+      <c r="H3" s="14" cm="1">
+        <f t="array" aca="1" ref="H3:H5" ca="1">G3:G5/_xlfn.ANCHORARRAY(E3)</f>
+        <v>6.9734724139598461</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="14" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C4" s="14">
+        <v>120</v>
+      </c>
+      <c r="D4" s="14">
+        <v>480</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <f ca="1"/>
+        <v>19.014274709066576</v>
+      </c>
+      <c r="G4" s="14">
+        <f ca="1"/>
+        <v>19.014274709066576</v>
+      </c>
+      <c r="H4" s="14">
+        <f ca="1"/>
+        <v>19.014274709066576</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="14" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C5" s="14">
+        <v>720</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1440</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <f ca="1"/>
+        <v>134.69516503377289</v>
+      </c>
+      <c r="G5" s="14">
+        <f ca="1"/>
+        <v>134.69516503377289</v>
+      </c>
+      <c r="H5" s="14">
+        <f ca="1"/>
+        <v>134.69516503377289</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="F7" s="14" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>1786</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>1783</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>1784</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="F8" s="14" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G8" s="14" t="b">
+        <f>ISBLANK(F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <f ca="1">RAND()</f>
+        <v>0.19734724139598459</v>
+      </c>
+      <c r="I8" s="14" cm="1">
+        <f t="array" aca="1" ref="I8:I29" ca="1">IF(G8:G29,"",H8:H29)</f>
+        <v>0.19734724139598459</v>
+      </c>
+      <c r="J8" s="14" cm="1">
+        <f t="array" ref="J8:J29">IF(G8:G29,"",VLOOKUP(F8:F29,B3:D5,2,FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="14" cm="1">
+        <f t="array" ref="K8:K29">IF(G8:G29,"",VLOOKUP(F8:F29,B3:D5,3,FALSE))</f>
+        <v>15</v>
+      </c>
+      <c r="L8" s="14" cm="1">
+        <f t="array" aca="1" ref="L8:L29" ca="1">IF(G8:G29,"",H8:H29*(_xlfn.ANCHORARRAY(K8)-_xlfn.ANCHORARRAY(J8))+J8)</f>
+        <v>6.9734724139598461</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="F9" s="14" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G9" s="14" t="b">
+        <f t="shared" ref="G9:G29" si="0">ISBLANK(F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" ref="H9:H29" ca="1" si="1">RAND()</f>
+        <v>3.8928540858518268E-2</v>
+      </c>
+      <c r="I9" s="14">
+        <f ca="1"/>
+        <v>3.8928540858518268E-2</v>
+      </c>
+      <c r="J9" s="14">
+        <v>120</v>
+      </c>
+      <c r="K9" s="14">
+        <v>480</v>
+      </c>
+      <c r="L9" s="14">
+        <f ca="1"/>
+        <v>19.014274709066576</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="F10" s="14" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18013217365801792</v>
+      </c>
+      <c r="I10" s="14">
+        <f ca="1"/>
+        <v>0.18013217365801792</v>
+      </c>
+      <c r="J10" s="14">
+        <v>720</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1440</v>
+      </c>
+      <c r="L10" s="14">
+        <f ca="1"/>
+        <v>134.69516503377289</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="G11" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26337152883904524</v>
+      </c>
+      <c r="I11" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J11" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K11" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L11" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="G12" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25289332218604921</v>
+      </c>
+      <c r="I12" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J12" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K12" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L12" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="G13" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59556860380589627</v>
+      </c>
+      <c r="I13" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J13" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K13" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L13" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="G14" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87021076840942002</v>
+      </c>
+      <c r="I14" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J14" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K14" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L14" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="G15" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.91387455387994188</v>
+      </c>
+      <c r="I15" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J15" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K15" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L15" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="G16" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43747617784876602</v>
+      </c>
+      <c r="I16" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J16" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K16" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L16" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="7:12">
+      <c r="G17" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39363671234809849</v>
+      </c>
+      <c r="I17" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J17" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K17" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L17" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="7:12">
+      <c r="G18" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67730053538954327</v>
+      </c>
+      <c r="I18" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J18" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K18" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L18" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="7:12">
+      <c r="G19" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17990666173222269</v>
+      </c>
+      <c r="I19" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J19" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K19" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L19" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="7:12">
+      <c r="G20" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80446401621215036</v>
+      </c>
+      <c r="I20" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J20" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K20" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L20" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="7:12">
+      <c r="G21" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74812814962528529</v>
+      </c>
+      <c r="I21" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K21" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L21" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="7:12">
+      <c r="G22" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5014334953315257</v>
+      </c>
+      <c r="I22" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J22" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K22" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L22" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="7:12">
+      <c r="G23" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98045401355745543</v>
+      </c>
+      <c r="I23" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J23" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K23" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L23" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="7:12">
+      <c r="G24" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19817572582241627</v>
+      </c>
+      <c r="I24" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J24" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K24" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L24" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="7:12">
+      <c r="G25" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37369449090566598</v>
+      </c>
+      <c r="I25" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J25" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K25" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L25" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="7:12">
+      <c r="G26" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45705287271419293</v>
+      </c>
+      <c r="I26" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J26" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K26" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L26" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="7:12">
+      <c r="G27" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39564114988688182</v>
+      </c>
+      <c r="I27" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J27" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K27" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L27" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="7:12">
+      <c r="G28" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37962027593415004</v>
+      </c>
+      <c r="I28" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J28" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K28" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L28" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="7:12">
+      <c r="G29" s="14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24372124349280011</v>
+      </c>
+      <c r="I29" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="J29" s="14" t="str">
+        <v/>
+      </c>
+      <c r="K29" s="14" t="str">
+        <v/>
+      </c>
+      <c r="L29" s="14" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/images/TLOU Infected data.xlsx
+++ b/images/TLOU Infected data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Zomboid\Workshop\The Last of Us Infected\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146D9482-8400-49C9-B2B4-67AD382C32DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5FF6FA-7509-4B4D-9A80-CCF0AB8F53F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="10" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1801">
   <si>
     <t>TSSF</t>
   </si>
@@ -5441,6 +5441,36 @@
   </si>
   <si>
     <t>reduced</t>
+  </si>
+  <si>
+    <t>InfectionTime</t>
+  </si>
+  <si>
+    <t>first bite</t>
+  </si>
+  <si>
+    <t>float4</t>
+  </si>
+  <si>
+    <t>time of world</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>T_bite</t>
+  </si>
+  <si>
+    <t>T_current</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>InfectionMortalityDuration</t>
+  </si>
+  <si>
+    <t>divisé</t>
   </si>
 </sst>
 </file>
@@ -5450,7 +5480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5496,6 +5526,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF6D7A72"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEBA4AC"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -5785,7 +5821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5898,6 +5934,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13493,14 +13535,14 @@
       <c r="G24" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="46" t="s">
         <v>1595</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickTop="1">
       <c r="B27" s="17" t="s">
@@ -13775,16 +13817,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="47" t="s">
         <v>1770</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="2:12">
       <c r="D5" s="43" t="s">
@@ -13875,16 +13917,16 @@
       <c r="C9" s="2"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="47" t="s">
         <v>1771</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="2:12">
       <c r="D12" s="43" t="s">
@@ -13989,16 +14031,16 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="47" t="s">
         <v>1772</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="2:12">
       <c r="D18" s="43" t="s">
@@ -14114,674 +14156,751 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806FD5A-E7F6-448C-8A68-236BBC78835C}">
-  <dimension ref="B2:L29"/>
+  <dimension ref="B2:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="15" width="11.42578125" style="39"/>
+    <col min="16" max="16" width="19.7109375" style="39" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" style="39" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="39"/>
+    <col min="19" max="19" width="31.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:20">
+      <c r="B2" s="39" t="s">
         <v>1785</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="39" t="s">
         <v>1783</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="39" t="s">
         <v>1784</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="39" t="s">
         <v>1024</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="39" t="s">
         <v>1789</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="39" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:20">
+      <c r="B3" s="39" t="s">
         <v>1780</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="39">
         <v>5</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="39">
         <v>15</v>
       </c>
-      <c r="E3" s="14" cm="1">
+      <c r="E3" s="39" cm="1">
         <f t="array" ref="E3:E5">COUNTIF(F8:F29,B3:B5)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="14" cm="1">
+      <c r="F3" s="39" cm="1">
         <f t="array" aca="1" ref="F3:F5" ca="1">SUMIF(F8:F29,B3:B5,_xlfn.ANCHORARRAY(L8))</f>
-        <v>6.9734724139598461</v>
-      </c>
-      <c r="G3" s="14" cm="1">
+        <v>11.445076759259809</v>
+      </c>
+      <c r="G3" s="39" cm="1">
         <f t="array" aca="1" ref="G3:G5" ca="1">F3:F5/E3:E5</f>
-        <v>6.9734724139598461</v>
-      </c>
-      <c r="H3" s="14" cm="1">
+        <v>11.445076759259809</v>
+      </c>
+      <c r="H3" s="39" cm="1">
         <f t="array" aca="1" ref="H3:H5" ca="1">G3:G5/_xlfn.ANCHORARRAY(E3)</f>
-        <v>6.9734724139598461</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="14" t="s">
+        <v>11.445076759259809</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="39" t="s">
         <v>1781</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="39">
         <v>120</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="39">
         <v>480</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="39">
         <v>1</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="39">
         <f ca="1"/>
-        <v>19.014274709066576</v>
-      </c>
-      <c r="G4" s="14">
+        <v>292.15599656846865</v>
+      </c>
+      <c r="G4" s="39">
         <f ca="1"/>
-        <v>19.014274709066576</v>
-      </c>
-      <c r="H4" s="14">
+        <v>292.15599656846865</v>
+      </c>
+      <c r="H4" s="39">
         <f ca="1"/>
-        <v>19.014274709066576</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="14" t="s">
+        <v>292.15599656846865</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>1794</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>1794</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>1764</v>
+      </c>
+      <c r="S4" s="44" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="39" t="s">
         <v>1782</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="39">
         <v>720</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="39">
         <v>1440</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="39">
         <v>1</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="39">
         <f ca="1"/>
-        <v>134.69516503377289</v>
-      </c>
-      <c r="G5" s="14">
+        <v>133.80239190390517</v>
+      </c>
+      <c r="G5" s="39">
         <f ca="1"/>
-        <v>134.69516503377289</v>
-      </c>
-      <c r="H5" s="14">
+        <v>133.80239190390517</v>
+      </c>
+      <c r="H5" s="39">
         <f ca="1"/>
-        <v>134.69516503377289</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="F7" s="14" t="s">
+        <v>133.80239190390517</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>1791</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="P6" s="39" t="s">
+        <v>1792</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="F7" s="39" t="s">
         <v>1785</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="39" t="s">
         <v>1787</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="39" t="s">
         <v>1786</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="39" t="s">
         <v>1786</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="39" t="s">
         <v>1783</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="39" t="s">
         <v>1784</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="39" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="F8" s="14" t="s">
+      <c r="P7" s="39" t="s">
+        <v>1796</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="F8" s="39" t="s">
         <v>1780</v>
       </c>
-      <c r="G8" s="14" t="b">
+      <c r="G8" s="39" t="b">
         <f>ISBLANK(F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="39">
         <f ca="1">RAND()</f>
-        <v>0.19734724139598459</v>
-      </c>
-      <c r="I8" s="14" cm="1">
+        <v>0.64450767592598079</v>
+      </c>
+      <c r="I8" s="39" cm="1">
         <f t="array" aca="1" ref="I8:I29" ca="1">IF(G8:G29,"",H8:H29)</f>
-        <v>0.19734724139598459</v>
-      </c>
-      <c r="J8" s="14" cm="1">
+        <v>0.64450767592598079</v>
+      </c>
+      <c r="J8" s="39" cm="1">
         <f t="array" ref="J8:J29">IF(G8:G29,"",VLOOKUP(F8:F29,B3:D5,2,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="K8" s="14" cm="1">
+      <c r="K8" s="39" cm="1">
         <f t="array" ref="K8:K29">IF(G8:G29,"",VLOOKUP(F8:F29,B3:D5,3,FALSE))</f>
         <v>15</v>
       </c>
-      <c r="L8" s="14" cm="1">
+      <c r="L8" s="39" cm="1">
         <f t="array" aca="1" ref="L8:L29" ca="1">IF(G8:G29,"",H8:H29*(_xlfn.ANCHORARRAY(K8)-_xlfn.ANCHORARRAY(J8))+J8)</f>
-        <v>6.9734724139598461</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="F9" s="14" t="s">
+        <v>11.445076759259809</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>1798</v>
+      </c>
+      <c r="P8" s="39">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>15</v>
+      </c>
+      <c r="R8" s="39">
+        <f>Q8-P8</f>
+        <v>5</v>
+      </c>
+      <c r="S8" s="39">
+        <v>49.912063598632798</v>
+      </c>
+      <c r="T8" s="39">
+        <f>R8/S8</f>
+        <v>0.10017618266011669</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="F9" s="39" t="s">
         <v>1781</v>
       </c>
-      <c r="G9" s="14" t="b">
+      <c r="G9" s="39" t="b">
         <f t="shared" ref="G9:G29" si="0">ISBLANK(F9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="39">
         <f t="shared" ref="H9:H29" ca="1" si="1">RAND()</f>
-        <v>3.8928540858518268E-2</v>
-      </c>
-      <c r="I9" s="14">
+        <v>0.79765554602352406</v>
+      </c>
+      <c r="I9" s="39">
         <f ca="1"/>
-        <v>3.8928540858518268E-2</v>
-      </c>
-      <c r="J9" s="14">
+        <v>0.79765554602352406</v>
+      </c>
+      <c r="J9" s="39">
         <v>120</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="39">
         <v>480</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="39">
         <f ca="1"/>
-        <v>19.014274709066576</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="F10" s="14" t="s">
+        <v>292.15599656846865</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="F10" s="39" t="s">
         <v>1782</v>
       </c>
-      <c r="G10" s="14" t="b">
+      <c r="G10" s="39" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18013217365801792</v>
-      </c>
-      <c r="I10" s="14">
+        <v>0.17889221097764607</v>
+      </c>
+      <c r="I10" s="39">
         <f ca="1"/>
-        <v>0.18013217365801792</v>
-      </c>
-      <c r="J10" s="14">
+        <v>0.17889221097764607</v>
+      </c>
+      <c r="J10" s="39">
         <v>720</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="39">
         <v>1440</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="39">
         <f ca="1"/>
-        <v>134.69516503377289</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="G11" s="14" t="b">
+        <v>133.80239190390517</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="G11" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26337152883904524</v>
-      </c>
-      <c r="I11" s="14" t="str">
+        <v>0.44240079085166584</v>
+      </c>
+      <c r="I11" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J11" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K11" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L11" s="14" t="str">
+      <c r="J11" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K11" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L11" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="G12" s="14" t="b">
+    <row r="12" spans="2:20">
+      <c r="G12" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25289332218604921</v>
-      </c>
-      <c r="I12" s="14" t="str">
+        <v>0.77592527743356643</v>
+      </c>
+      <c r="I12" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J12" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K12" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L12" s="14" t="str">
+      <c r="J12" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K12" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L12" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="G13" s="14" t="b">
+    <row r="13" spans="2:20">
+      <c r="G13" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59556860380589627</v>
-      </c>
-      <c r="I13" s="14" t="str">
+        <v>0.7993154384741904</v>
+      </c>
+      <c r="I13" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J13" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K13" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L13" s="14" t="str">
+      <c r="J13" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K13" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L13" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="G14" s="14" t="b">
+    <row r="14" spans="2:20">
+      <c r="G14" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87021076840942002</v>
-      </c>
-      <c r="I14" s="14" t="str">
+        <v>0.1279553368189088</v>
+      </c>
+      <c r="I14" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J14" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K14" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L14" s="14" t="str">
+      <c r="J14" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K14" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L14" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="G15" s="14" t="b">
+    <row r="15" spans="2:20">
+      <c r="G15" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91387455387994188</v>
-      </c>
-      <c r="I15" s="14" t="str">
+        <v>0.54579164825570436</v>
+      </c>
+      <c r="I15" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J15" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K15" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L15" s="14" t="str">
+      <c r="J15" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K15" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L15" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="G16" s="14" t="b">
+      <c r="S15" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="G16" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43747617784876602</v>
-      </c>
-      <c r="I16" s="14" t="str">
+        <v>0.8170625597045269</v>
+      </c>
+      <c r="I16" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J16" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K16" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L16" s="14" t="str">
+      <c r="J16" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K16" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L16" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="7:12">
-      <c r="G17" s="14" t="b">
+      <c r="R16" s="39">
+        <v>580</v>
+      </c>
+      <c r="S16" s="39" cm="1">
+        <f t="array" ref="S16:S17">R16:R17/S15</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="7:19">
+      <c r="G17" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39363671234809849</v>
-      </c>
-      <c r="I17" s="14" t="str">
+        <v>3.684509939463565E-3</v>
+      </c>
+      <c r="I17" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J17" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K17" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L17" s="14" t="str">
+      <c r="J17" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K17" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L17" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="7:12">
-      <c r="G18" s="14" t="b">
+      <c r="R17" s="39">
+        <v>820</v>
+      </c>
+      <c r="S17" s="39">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="7:19">
+      <c r="G18" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67730053538954327</v>
-      </c>
-      <c r="I18" s="14" t="str">
+        <v>0.45857859717343297</v>
+      </c>
+      <c r="I18" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J18" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K18" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L18" s="14" t="str">
+      <c r="J18" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K18" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L18" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="7:12">
-      <c r="G19" s="14" t="b">
+      <c r="Q18" s="45"/>
+    </row>
+    <row r="19" spans="7:19">
+      <c r="G19" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17990666173222269</v>
-      </c>
-      <c r="I19" s="14" t="str">
+        <v>0.37425435643115135</v>
+      </c>
+      <c r="I19" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J19" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K19" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L19" s="14" t="str">
+      <c r="J19" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K19" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L19" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:12">
-      <c r="G20" s="14" t="b">
+    <row r="20" spans="7:19">
+      <c r="G20" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80446401621215036</v>
-      </c>
-      <c r="I20" s="14" t="str">
+        <v>7.2869651693595605E-3</v>
+      </c>
+      <c r="I20" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J20" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K20" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L20" s="14" t="str">
+      <c r="J20" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K20" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L20" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:12">
-      <c r="G21" s="14" t="b">
+    <row r="21" spans="7:19">
+      <c r="G21" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74812814962528529</v>
-      </c>
-      <c r="I21" s="14" t="str">
+        <v>0.17891216841107793</v>
+      </c>
+      <c r="I21" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J21" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K21" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L21" s="14" t="str">
+      <c r="J21" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K21" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L21" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:12">
-      <c r="G22" s="14" t="b">
+    <row r="22" spans="7:19">
+      <c r="G22" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5014334953315257</v>
-      </c>
-      <c r="I22" s="14" t="str">
+        <v>0.33052074065725212</v>
+      </c>
+      <c r="I22" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J22" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K22" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L22" s="14" t="str">
+      <c r="J22" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K22" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L22" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:12">
-      <c r="G23" s="14" t="b">
+    <row r="23" spans="7:19">
+      <c r="G23" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98045401355745543</v>
-      </c>
-      <c r="I23" s="14" t="str">
+        <v>0.92776950294641969</v>
+      </c>
+      <c r="I23" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J23" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K23" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L23" s="14" t="str">
+      <c r="J23" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K23" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L23" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:12">
-      <c r="G24" s="14" t="b">
+    <row r="24" spans="7:19">
+      <c r="G24" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19817572582241627</v>
-      </c>
-      <c r="I24" s="14" t="str">
+        <v>0.22182895184561779</v>
+      </c>
+      <c r="I24" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J24" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K24" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L24" s="14" t="str">
+      <c r="J24" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K24" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L24" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="7:12">
-      <c r="G25" s="14" t="b">
+    <row r="25" spans="7:19">
+      <c r="G25" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37369449090566598</v>
-      </c>
-      <c r="I25" s="14" t="str">
+        <v>0.28002339135362675</v>
+      </c>
+      <c r="I25" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J25" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K25" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L25" s="14" t="str">
+      <c r="J25" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K25" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L25" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="7:12">
-      <c r="G26" s="14" t="b">
+    <row r="26" spans="7:19">
+      <c r="G26" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45705287271419293</v>
-      </c>
-      <c r="I26" s="14" t="str">
+        <v>0.95832450703386074</v>
+      </c>
+      <c r="I26" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J26" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K26" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L26" s="14" t="str">
+      <c r="J26" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K26" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L26" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="7:12">
-      <c r="G27" s="14" t="b">
+    <row r="27" spans="7:19">
+      <c r="G27" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39564114988688182</v>
-      </c>
-      <c r="I27" s="14" t="str">
+        <v>0.61612018692094139</v>
+      </c>
+      <c r="I27" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J27" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K27" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L27" s="14" t="str">
+      <c r="J27" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K27" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L27" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="7:12">
-      <c r="G28" s="14" t="b">
+    <row r="28" spans="7:19">
+      <c r="G28" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37962027593415004</v>
-      </c>
-      <c r="I28" s="14" t="str">
+        <v>0.87475764150648194</v>
+      </c>
+      <c r="I28" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J28" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K28" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L28" s="14" t="str">
+      <c r="J28" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K28" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L28" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="7:12">
-      <c r="G29" s="14" t="b">
+    <row r="29" spans="7:19">
+      <c r="G29" s="39" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24372124349280011</v>
-      </c>
-      <c r="I29" s="14" t="str">
+        <v>0.94898537985967768</v>
+      </c>
+      <c r="I29" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="J29" s="14" t="str">
-        <v/>
-      </c>
-      <c r="K29" s="14" t="str">
-        <v/>
-      </c>
-      <c r="L29" s="14" t="str">
+      <c r="J29" s="39" t="str">
+        <v/>
+      </c>
+      <c r="K29" s="39" t="str">
+        <v/>
+      </c>
+      <c r="L29" s="39" t="str">
         <f ca="1"/>
         <v/>
       </c>

--- a/images/TLOU Infected data.xlsx
+++ b/images/TLOU Infected data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Zomboid\Workshop\The Last of Us Infected\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5FF6FA-7509-4B4D-9A80-CCF0AB8F53F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FFA097-19BC-4BDA-9DD8-DAEE76988784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="10" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="11" xr2:uid="{B0E38D68-EF4F-48CD-AC73-F483C8EE581E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zombie stats" sheetId="5" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Stalker trajectories" sheetId="9" r:id="rId9"/>
     <sheet name="FOV" sheetId="10" r:id="rId10"/>
     <sheet name="Infection time" sheetId="11" r:id="rId11"/>
+    <sheet name="Bullet data" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="1849">
   <si>
     <t>TSSF</t>
   </si>
@@ -5471,6 +5472,150 @@
   </si>
   <si>
     <t>divisé</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>AmmoType</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Emin</t>
+  </si>
+  <si>
+    <t>Emax</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>increaseHitTime</t>
+  </si>
+  <si>
+    <t>canKill</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>.38 special</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Bullets38</t>
+  </si>
+  <si>
+    <t>9.06</t>
+  </si>
+  <si>
+    <t>.223</t>
+  </si>
+  <si>
+    <t>223Bullets</t>
+  </si>
+  <si>
+    <t>5.69</t>
+  </si>
+  <si>
+    <t>.308</t>
+  </si>
+  <si>
+    <t>308Bullets</t>
+  </si>
+  <si>
+    <t>7.82</t>
+  </si>
+  <si>
+    <t>.44</t>
+  </si>
+  <si>
+    <t>Bullets44</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>.45</t>
+  </si>
+  <si>
+    <t>Bullets45</t>
+  </si>
+  <si>
+    <t>11.43</t>
+  </si>
+  <si>
+    <t>5.56</t>
+  </si>
+  <si>
+    <t>556Bullets</t>
+  </si>
+  <si>
+    <t>9mm</t>
+  </si>
+  <si>
+    <t>Bullets9mm</t>
+  </si>
+  <si>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>12 gauge</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>ShotgunShells</t>
+  </si>
+  <si>
+    <t>18.53</t>
+  </si>
+  <si>
+    <t>Bullet name</t>
+  </si>
+  <si>
+    <t>Emin [J]</t>
+  </si>
+  <si>
+    <t>Emax [J]</t>
+  </si>
+  <si>
+    <t>Time needed to deplete a filter</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Energized</t>
+  </si>
+  <si>
+    <t>Exhausted</t>
+  </si>
+  <si>
+    <t>Note that most mods have compatibility added in</t>
+  </si>
+  <si>
+    <t>exp - 1</t>
   </si>
 </sst>
 </file>
@@ -5480,7 +5625,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5535,8 +5680,36 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5573,8 +5746,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF731F6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E0B0A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF603260"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA12B96"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF084F6C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B6F97"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF204E54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -5816,12 +6031,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5940,11 +6229,53 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12287,6 +12618,706 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bullet data'!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bullet data'!$C$34:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.36787944117144233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40656965974059911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44932896411722156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49658530379140953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54881163609402639</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60653065971263342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67032004603563933</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74081822068171788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81873075307798193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90483741803595963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01ED-4741-BC4C-45E0D8DE9C81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="40893040"/>
+        <c:axId val="40892080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="40893040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40892080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40892080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40893040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bullet data'!$B$34:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bullet data'!$D$34:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000018E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4000000000000029E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10240000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51839999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9603999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6384000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6244000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7673-42C7-8702-27263BF1A665}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="91574832"/>
+        <c:axId val="91574352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91574832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91574352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91574352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91574832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12327,7 +13358,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12886,6 +15029,152 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>688735</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED55B3A-F595-47DF-8A4F-513C67AA1980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4932486" y="4158026"/>
+          <a:ext cx="2058865" cy="674082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Endurance</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A1691C-999B-B16F-D585-8280D60F4B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A44115-DF44-20C3-EF17-6ADBDD81993B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -13535,14 +15824,14 @@
       <c r="G24" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="47" t="s">
         <v>1595</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickTop="1">
       <c r="B27" s="17" t="s">
@@ -13817,16 +16106,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>1770</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="2:12">
       <c r="D5" s="43" t="s">
@@ -13917,16 +16206,16 @@
       <c r="C9" s="2"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="48" t="s">
         <v>1771</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="2:12">
       <c r="D12" s="43" t="s">
@@ -14031,16 +16320,16 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="48" t="s">
         <v>1772</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="2:12">
       <c r="D18" s="43" t="s">
@@ -14158,7 +16447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E806FD5A-E7F6-448C-8A68-236BBC78835C}">
   <dimension ref="B2:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
@@ -14208,15 +16497,15 @@
       </c>
       <c r="F3" s="39" cm="1">
         <f t="array" aca="1" ref="F3:F5" ca="1">SUMIF(F8:F29,B3:B5,_xlfn.ANCHORARRAY(L8))</f>
-        <v>11.445076759259809</v>
+        <v>10.381857738475837</v>
       </c>
       <c r="G3" s="39" cm="1">
         <f t="array" aca="1" ref="G3:G5" ca="1">F3:F5/E3:E5</f>
-        <v>11.445076759259809</v>
+        <v>10.381857738475837</v>
       </c>
       <c r="H3" s="39" cm="1">
         <f t="array" aca="1" ref="H3:H5" ca="1">G3:G5/_xlfn.ANCHORARRAY(E3)</f>
-        <v>11.445076759259809</v>
+        <v>10.381857738475837</v>
       </c>
     </row>
     <row r="4" spans="2:20">
@@ -14234,15 +16523,15 @@
       </c>
       <c r="F4" s="39">
         <f ca="1"/>
-        <v>292.15599656846865</v>
+        <v>149.55022097798519</v>
       </c>
       <c r="G4" s="39">
         <f ca="1"/>
-        <v>292.15599656846865</v>
+        <v>149.55022097798519</v>
       </c>
       <c r="H4" s="39">
         <f ca="1"/>
-        <v>292.15599656846865</v>
+        <v>149.55022097798519</v>
       </c>
       <c r="P4" s="39" t="s">
         <v>1794</v>
@@ -14275,15 +16564,15 @@
       </c>
       <c r="F5" s="39">
         <f ca="1"/>
-        <v>133.80239190390517</v>
+        <v>158.36638407510495</v>
       </c>
       <c r="G5" s="39">
         <f ca="1"/>
-        <v>133.80239190390517</v>
+        <v>158.36638407510495</v>
       </c>
       <c r="H5" s="39">
         <f ca="1"/>
-        <v>133.80239190390517</v>
+        <v>158.36638407510495</v>
       </c>
       <c r="P5" s="39" t="s">
         <v>1791</v>
@@ -14339,11 +16628,11 @@
       </c>
       <c r="H8" s="39">
         <f ca="1">RAND()</f>
-        <v>0.64450767592598079</v>
+        <v>0.53818577384758381</v>
       </c>
       <c r="I8" s="39" cm="1">
         <f t="array" aca="1" ref="I8:I29" ca="1">IF(G8:G29,"",H8:H29)</f>
-        <v>0.64450767592598079</v>
+        <v>0.53818577384758381</v>
       </c>
       <c r="J8" s="39" cm="1">
         <f t="array" ref="J8:J29">IF(G8:G29,"",VLOOKUP(F8:F29,B3:D5,2,FALSE))</f>
@@ -14355,7 +16644,7 @@
       </c>
       <c r="L8" s="39" cm="1">
         <f t="array" aca="1" ref="L8:L29" ca="1">IF(G8:G29,"",H8:H29*(_xlfn.ANCHORARRAY(K8)-_xlfn.ANCHORARRAY(J8))+J8)</f>
-        <v>11.445076759259809</v>
+        <v>10.381857738475837</v>
       </c>
       <c r="O8" s="39" t="s">
         <v>1798</v>
@@ -14388,11 +16677,11 @@
       </c>
       <c r="H9" s="39">
         <f t="shared" ref="H9:H29" ca="1" si="1">RAND()</f>
-        <v>0.79765554602352406</v>
+        <v>0.40152839160551446</v>
       </c>
       <c r="I9" s="39">
         <f ca="1"/>
-        <v>0.79765554602352406</v>
+        <v>0.40152839160551446</v>
       </c>
       <c r="J9" s="39">
         <v>120</v>
@@ -14402,7 +16691,7 @@
       </c>
       <c r="L9" s="39">
         <f ca="1"/>
-        <v>292.15599656846865</v>
+        <v>149.55022097798519</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -14415,11 +16704,11 @@
       </c>
       <c r="H10" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17889221097764607</v>
+        <v>0.21300886677097908</v>
       </c>
       <c r="I10" s="39">
         <f ca="1"/>
-        <v>0.17889221097764607</v>
+        <v>0.21300886677097908</v>
       </c>
       <c r="J10" s="39">
         <v>720</v>
@@ -14429,7 +16718,7 @@
       </c>
       <c r="L10" s="39">
         <f ca="1"/>
-        <v>133.80239190390517</v>
+        <v>158.36638407510495</v>
       </c>
     </row>
     <row r="11" spans="2:20">
@@ -14439,7 +16728,7 @@
       </c>
       <c r="H11" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44240079085166584</v>
+        <v>0.98250540932383457</v>
       </c>
       <c r="I11" s="39" t="str">
         <f ca="1"/>
@@ -14463,7 +16752,7 @@
       </c>
       <c r="H12" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77592527743356643</v>
+        <v>0.77584425548232183</v>
       </c>
       <c r="I12" s="39" t="str">
         <f ca="1"/>
@@ -14487,7 +16776,7 @@
       </c>
       <c r="H13" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7993154384741904</v>
+        <v>0.53128190576467982</v>
       </c>
       <c r="I13" s="39" t="str">
         <f ca="1"/>
@@ -14511,7 +16800,7 @@
       </c>
       <c r="H14" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1279553368189088</v>
+        <v>0.47761356291165891</v>
       </c>
       <c r="I14" s="39" t="str">
         <f ca="1"/>
@@ -14535,7 +16824,7 @@
       </c>
       <c r="H15" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54579164825570436</v>
+        <v>0.27935664384328296</v>
       </c>
       <c r="I15" s="39" t="str">
         <f ca="1"/>
@@ -14562,7 +16851,7 @@
       </c>
       <c r="H16" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8170625597045269</v>
+        <v>3.2133015615286142E-2</v>
       </c>
       <c r="I16" s="39" t="str">
         <f ca="1"/>
@@ -14593,7 +16882,7 @@
       </c>
       <c r="H17" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>3.684509939463565E-3</v>
+        <v>0.25777704948883118</v>
       </c>
       <c r="I17" s="39" t="str">
         <f ca="1"/>
@@ -14623,7 +16912,7 @@
       </c>
       <c r="H18" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45857859717343297</v>
+        <v>0.99556808699561561</v>
       </c>
       <c r="I18" s="39" t="str">
         <f ca="1"/>
@@ -14648,7 +16937,7 @@
       </c>
       <c r="H19" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37425435643115135</v>
+        <v>0.10070723479883192</v>
       </c>
       <c r="I19" s="39" t="str">
         <f ca="1"/>
@@ -14672,7 +16961,7 @@
       </c>
       <c r="H20" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2869651693595605E-3</v>
+        <v>5.2200810033222078E-2</v>
       </c>
       <c r="I20" s="39" t="str">
         <f ca="1"/>
@@ -14696,7 +16985,7 @@
       </c>
       <c r="H21" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17891216841107793</v>
+        <v>6.3882092892355358E-2</v>
       </c>
       <c r="I21" s="39" t="str">
         <f ca="1"/>
@@ -14720,7 +17009,7 @@
       </c>
       <c r="H22" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33052074065725212</v>
+        <v>0.82345545077054894</v>
       </c>
       <c r="I22" s="39" t="str">
         <f ca="1"/>
@@ -14744,7 +17033,7 @@
       </c>
       <c r="H23" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92776950294641969</v>
+        <v>0.68503530954646097</v>
       </c>
       <c r="I23" s="39" t="str">
         <f ca="1"/>
@@ -14768,7 +17057,7 @@
       </c>
       <c r="H24" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22182895184561779</v>
+        <v>0.11963206187485109</v>
       </c>
       <c r="I24" s="39" t="str">
         <f ca="1"/>
@@ -14792,7 +17081,7 @@
       </c>
       <c r="H25" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28002339135362675</v>
+        <v>0.70817633827465665</v>
       </c>
       <c r="I25" s="39" t="str">
         <f ca="1"/>
@@ -14816,7 +17105,7 @@
       </c>
       <c r="H26" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95832450703386074</v>
+        <v>0.73993080837997871</v>
       </c>
       <c r="I26" s="39" t="str">
         <f ca="1"/>
@@ -14840,7 +17129,7 @@
       </c>
       <c r="H27" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61612018692094139</v>
+        <v>0.18217159770801938</v>
       </c>
       <c r="I27" s="39" t="str">
         <f ca="1"/>
@@ -14864,7 +17153,7 @@
       </c>
       <c r="H28" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87475764150648194</v>
+        <v>0.88068821035311662</v>
       </c>
       <c r="I28" s="39" t="str">
         <f ca="1"/>
@@ -14888,7 +17177,7 @@
       </c>
       <c r="H29" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94898537985967768</v>
+        <v>0.74917595235674272</v>
       </c>
       <c r="I29" s="39" t="str">
         <f ca="1"/>
@@ -14907,6 +17196,719 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A3ED2F-3EB8-41EA-BBC9-A2DE1ED813B4}">
+  <dimension ref="B2:P44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="46"/>
+    <col min="3" max="3" width="15.5703125" style="46" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16">
+      <c r="B2" s="46" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>1806</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>1809</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="46" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G3" s="46">
+        <v>300</v>
+      </c>
+      <c r="H3" s="46">
+        <v>450</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>1816</v>
+      </c>
+      <c r="J3" s="46">
+        <v>1</v>
+      </c>
+      <c r="K3" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="46" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G4" s="46">
+        <v>1670</v>
+      </c>
+      <c r="H4" s="46">
+        <v>1890</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J4" s="46">
+        <v>1</v>
+      </c>
+      <c r="K4" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="46" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G5" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H5" s="46">
+        <v>3800</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J5" s="46">
+        <v>1</v>
+      </c>
+      <c r="K5" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="46" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="46">
+        <v>1800</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J6" s="46">
+        <v>1</v>
+      </c>
+      <c r="K6" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="46" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G7" s="46">
+        <v>483</v>
+      </c>
+      <c r="H7" s="46">
+        <v>676</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>1828</v>
+      </c>
+      <c r="J7" s="46">
+        <v>1</v>
+      </c>
+      <c r="K7" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="46" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G8" s="46">
+        <v>1670</v>
+      </c>
+      <c r="H8" s="46">
+        <v>1890</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J8" s="46">
+        <v>1</v>
+      </c>
+      <c r="K8" s="46">
+        <v>1</v>
+      </c>
+      <c r="O8" s="46">
+        <v>270</v>
+      </c>
+      <c r="P8" s="46" cm="1">
+        <f t="array" ref="P8:P9">O8:O9/1.2</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="46" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G9" s="46">
+        <v>480</v>
+      </c>
+      <c r="H9" s="46">
+        <v>550</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>1833</v>
+      </c>
+      <c r="J9" s="46">
+        <v>1</v>
+      </c>
+      <c r="K9" s="46">
+        <v>1</v>
+      </c>
+      <c r="O9" s="46">
+        <v>212</v>
+      </c>
+      <c r="P9" s="46">
+        <v>176.66666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="46" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G10" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H10" s="46">
+        <v>3300</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J10" s="46">
+        <v>1</v>
+      </c>
+      <c r="K10" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="23.25" customHeight="1">
+      <c r="C16" s="49" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>1841</v>
+      </c>
+      <c r="I16" s="50"/>
+      <c r="J16" s="49" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="49" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="C17" s="54" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D17" s="54">
+        <v>300</v>
+      </c>
+      <c r="E17" s="54">
+        <v>450</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="55" t="e" cm="1">
+        <f t="array" ref="J17">_xlfn.ANCHORARRAY(A17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+    </row>
+    <row r="18" spans="3:15">
+      <c r="C18" s="54" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D18" s="54">
+        <v>1670</v>
+      </c>
+      <c r="E18" s="54">
+        <v>1890</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I18" s="57" t="e" cm="1">
+        <f t="array" ref="I18">_xlfn.ANCHORARRAY(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J18" s="54" t="e" cm="1">
+        <f t="array" ref="J18">IF(_xlfn.ANCHORARRAY($I$24)&lt;1,TEXT(_xlfn.ANCHORARRAY($R$8),0)&amp;" MIN",TEXT(_xlfn.ANCHORARRAY($I$24),0)&amp;" H ")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+    </row>
+    <row r="19" spans="3:15">
+      <c r="C19" s="54" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D19" s="54">
+        <v>2500</v>
+      </c>
+      <c r="E19" s="54">
+        <v>3800</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="C20" s="54" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D20" s="54">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="54">
+        <v>1800</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="C21" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D21" s="54">
+        <v>483</v>
+      </c>
+      <c r="E21" s="54">
+        <v>676</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="C22" s="54" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D22" s="54">
+        <v>1670</v>
+      </c>
+      <c r="E22" s="54">
+        <v>1890</v>
+      </c>
+      <c r="H22" s="59"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" s="54" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D23" s="54">
+        <v>480</v>
+      </c>
+      <c r="E23" s="54">
+        <v>550</v>
+      </c>
+      <c r="H23" s="59"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="C24" s="54" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D24" s="54">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="54">
+        <v>3300</v>
+      </c>
+      <c r="H24" s="59"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+    </row>
+    <row r="25" spans="3:15" ht="15" customHeight="1">
+      <c r="C25" s="61" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="H26" s="59"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+    </row>
+    <row r="27" spans="3:15">
+      <c r="H27" s="59"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+    </row>
+    <row r="28" spans="3:15">
+      <c r="H28" s="59"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+    </row>
+    <row r="29" spans="3:15">
+      <c r="H29" s="60"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+    </row>
+    <row r="30" spans="3:15">
+      <c r="H30" s="56" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="C33" s="46" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="46" cm="1">
+        <f t="array" ref="B34:B44">_xlfn.SEQUENCE(11,,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="46" cm="1">
+        <f t="array" ref="C34:C44">EXP(_xlfn.ANCHORARRAY(B34)/MAX(_xlfn.ANCHORARRAY(B34)) - 1)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="D34" s="46" cm="1">
+        <f t="array" ref="D34:D44">(_xlfn.ANCHORARRAY(B34)/MAX(_xlfn.ANCHORARRAY(B34)))^4*4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="46">
+        <v>1</v>
+      </c>
+      <c r="C35" s="46">
+        <v>0.40656965974059911</v>
+      </c>
+      <c r="D35" s="46">
+        <v>4.0000000000000018E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="46">
+        <v>2</v>
+      </c>
+      <c r="C36" s="46">
+        <v>0.44932896411722156</v>
+      </c>
+      <c r="D36" s="46">
+        <v>6.4000000000000029E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="46">
+        <v>3</v>
+      </c>
+      <c r="C37" s="46">
+        <v>0.49658530379140953</v>
+      </c>
+      <c r="D37" s="46">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="46">
+        <v>4</v>
+      </c>
+      <c r="C38" s="46">
+        <v>0.54881163609402639</v>
+      </c>
+      <c r="D38" s="46">
+        <v>0.10240000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="46">
+        <v>5</v>
+      </c>
+      <c r="C39" s="46">
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="D39" s="46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="46">
+        <v>6</v>
+      </c>
+      <c r="C40" s="46">
+        <v>0.67032004603563933</v>
+      </c>
+      <c r="D40" s="46">
+        <v>0.51839999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="46">
+        <v>7</v>
+      </c>
+      <c r="C41" s="46">
+        <v>0.74081822068171788</v>
+      </c>
+      <c r="D41" s="46">
+        <v>0.9603999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="46">
+        <v>8</v>
+      </c>
+      <c r="C42" s="46">
+        <v>0.81873075307798193</v>
+      </c>
+      <c r="D42" s="46">
+        <v>1.6384000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="46">
+        <v>9</v>
+      </c>
+      <c r="C43" s="46">
+        <v>0.90483741803595963</v>
+      </c>
+      <c r="D43" s="46">
+        <v>2.6244000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="46">
+        <v>10</v>
+      </c>
+      <c r="C44" s="46">
+        <v>1</v>
+      </c>
+      <c r="D44" s="46">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="H19:H29"/>
+    <mergeCell ref="C25:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
